--- a/08_Ago/DGAIGAT_agosto_DPCIIT.xlsx
+++ b/08_Ago/DGAIGAT_agosto_DPCIIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Inegi 2020\2024\01_InformeMensual_2024\08_Ago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD579382-9A91-42D5-9C6C-527CB963EB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD22C05-93F8-48D6-8B05-C0C01D5F5CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25396" windowHeight="15346" xr2:uid="{3A126976-81CC-4927-B736-8FF5B8573AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Agosto" sheetId="1" r:id="rId1"/>
@@ -1201,12 +1201,6 @@
     <t>Se continúa con las validaciones y manejo de errores en los formatos de captura del módulo de ratificación de instituciones.</t>
   </si>
   <si>
-    <t>Se realizó una reunión con la Dirección General de Comunicación, Servicio Público de Información y Relaciones Institucionales (DGCSPIRI) como resultado se obtuvo el visto bueno para continuar con el desarrollo de la iniciativa, así mismo, se programó una reunión de trabajo técnica entre ambas áreas con el fin de afinar los detalles técnicos del desarrollo del aplicativo.</t>
-  </si>
-  <si>
-    <t>Con el fin de generar la propuesta del desarrollo del aplicativo del Índice Territorial Urbano - Rural (ITUR), se continúa con el análisis del documento prototipo para incorporar los elementos solicitados al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se realizaron pruebas a la primera fase del funcionamiento de la página Web prototipo de la Norma Técnica de Domicilios Geográficos, la cual incluye: la actualización del diseño general, menú de navegación y la sección de contactos para su integración al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.
 </t>
   </si>
@@ -1219,6 +1213,12 @@
   </si>
   <si>
     <t>Se concentró la información en formato CSV y XLSX de la información del producto  "Encuesta Nacional de la Dinámica Demográfica (ENADID)" en su versión 2023 del sitio institucional para su incorporación a la base de datos del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
+  </si>
+  <si>
+    <t>Se continúa con el análisis del documento prototipo de la propuesta de desarrollo del aplicativo del Índice Territoral Urbano - Rural (ITUR) para incorporar los elementos solicitados al Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Desarrollo Urbano.</t>
+  </si>
+  <si>
+    <t>Se realizó una reunión de trabajo con la Dirección de Soluciones Geomáticas con el fin de retomar los trabajos en conjunto para del desarrollo del aplicativo del Sistema Colaborativo de Información Estadística y Geográfica para el Ordenamiento Territorial y Urbano.</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1503,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1597,12 +1597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,7 +1825,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2372,6 +2366,215 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2381,63 +2584,180 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2456,23 +2776,17 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2492,23 +2806,14 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2528,295 +2833,17 @@
     <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2827,101 +2854,44 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4412,28 +4382,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82E8332-6D5A-428C-95F2-0F05D1BFD024}">
   <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A156" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="62.3984375" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="89.42578125" style="162" customWidth="1"/>
-    <col min="10" max="10" width="64.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="86.85546875" style="17" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" customWidth="1"/>
+    <col min="9" max="9" width="89.3984375" style="162" customWidth="1"/>
+    <col min="10" max="10" width="64.3984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.73046875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="86.86328125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="35.73046875" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.59765625" customWidth="1"/>
+    <col min="17" max="17" width="36.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -4457,11 +4427,11 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="331" t="s">
+      <c r="G3" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
       <c r="L3" s="72"/>
@@ -4535,13 +4505,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A7" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="311" t="s">
+      <c r="A7" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="307" t="s">
+      <c r="C7" s="200" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="123" t="s">
@@ -4567,9 +4537,9 @@
       <c r="M7" s="135"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1">
-      <c r="A8" s="294"/>
-      <c r="B8" s="321"/>
-      <c r="C8" s="308"/>
+      <c r="A8" s="205"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="94" t="s">
         <v>155</v>
       </c>
@@ -4577,20 +4547,20 @@
       <c r="F8" s="73">
         <v>1</v>
       </c>
-      <c r="G8" s="188" t="s">
+      <c r="G8" s="259" t="s">
         <v>361</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="261"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1">
-      <c r="A9" s="294"/>
-      <c r="B9" s="321"/>
-      <c r="C9" s="308"/>
+      <c r="A9" s="205"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="201"/>
       <c r="D9" s="95" t="s">
         <v>156</v>
       </c>
@@ -4598,20 +4568,20 @@
       <c r="F9" s="73">
         <v>1</v>
       </c>
-      <c r="G9" s="188" t="s">
+      <c r="G9" s="259" t="s">
         <v>370</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="190"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="261"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="25.5">
-      <c r="A10" s="294"/>
-      <c r="B10" s="321"/>
-      <c r="C10" s="308"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="201"/>
       <c r="D10" s="94" t="s">
         <v>325</v>
       </c>
@@ -4630,9 +4600,9 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="294"/>
-      <c r="B11" s="321"/>
-      <c r="C11" s="307" t="s">
+      <c r="A11" s="205"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="200" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="124" t="s">
@@ -4654,9 +4624,9 @@
       <c r="M11" s="135"/>
     </row>
     <row r="12" spans="1:17" ht="25.5">
-      <c r="A12" s="294"/>
-      <c r="B12" s="321"/>
-      <c r="C12" s="308"/>
+      <c r="A12" s="205"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="201"/>
       <c r="D12" s="105" t="s">
         <v>158</v>
       </c>
@@ -4664,20 +4634,20 @@
       <c r="F12" s="73">
         <v>1</v>
       </c>
-      <c r="G12" s="192" t="s">
+      <c r="G12" s="189" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="193"/>
-      <c r="I12" s="194"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="191"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="25.5">
-      <c r="A13" s="294"/>
-      <c r="B13" s="321"/>
-      <c r="C13" s="308"/>
+    <row r="13" spans="1:17" ht="15">
+      <c r="A13" s="205"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="201"/>
       <c r="D13" s="105" t="s">
         <v>159</v>
       </c>
@@ -4685,18 +4655,18 @@
       <c r="F13" s="73">
         <v>1</v>
       </c>
-      <c r="G13" s="195"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="197"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="194"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="294"/>
-      <c r="B14" s="321"/>
-      <c r="C14" s="308"/>
+    <row r="14" spans="1:17" ht="15">
+      <c r="A14" s="205"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="95" t="s">
         <v>160</v>
       </c>
@@ -4704,20 +4674,20 @@
       <c r="F14" s="73">
         <v>1</v>
       </c>
-      <c r="G14" s="198"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="200"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="197"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="27" customHeight="1">
-      <c r="A15" s="294"/>
-      <c r="B15" s="296" t="s">
+      <c r="A15" s="205"/>
+      <c r="B15" s="207" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="307" t="s">
+      <c r="C15" s="200" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="125" t="s">
@@ -4740,14 +4710,14 @@
       <c r="L15" s="134"/>
       <c r="M15" s="135"/>
     </row>
-    <row r="16" spans="1:17" ht="25.5">
-      <c r="A16" s="294"/>
-      <c r="B16" s="297"/>
-      <c r="C16" s="308"/>
+    <row r="16" spans="1:17">
+      <c r="A16" s="205"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="201"/>
       <c r="D16" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="228"/>
+      <c r="E16" s="217"/>
       <c r="F16" s="160">
         <v>0.45</v>
       </c>
@@ -4762,13 +4732,13 @@
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" ht="25.5">
-      <c r="A17" s="294"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="308"/>
+      <c r="A17" s="205"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="201"/>
       <c r="D17" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="229"/>
+      <c r="E17" s="218"/>
       <c r="F17" s="160">
         <v>0.45</v>
       </c>
@@ -4783,13 +4753,13 @@
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" ht="25.5">
-      <c r="A18" s="294"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="308"/>
+      <c r="A18" s="205"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="201"/>
       <c r="D18" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="229"/>
+      <c r="E18" s="218"/>
       <c r="F18" s="160">
         <v>0.45</v>
       </c>
@@ -4804,13 +4774,13 @@
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" ht="25.5">
-      <c r="A19" s="294"/>
-      <c r="B19" s="297"/>
-      <c r="C19" s="308"/>
+      <c r="A19" s="205"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="230"/>
+      <c r="E19" s="219"/>
       <c r="F19" s="160">
         <v>0.45</v>
       </c>
@@ -4825,9 +4795,9 @@
       <c r="M19" s="87"/>
     </row>
     <row r="20" spans="1:13" ht="29.25" customHeight="1">
-      <c r="A20" s="294"/>
-      <c r="B20" s="297"/>
-      <c r="C20" s="304" t="s">
+      <c r="A20" s="205"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="209" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="124" t="s">
@@ -4851,13 +4821,13 @@
       <c r="M20" s="135"/>
     </row>
     <row r="21" spans="1:13" ht="25.5">
-      <c r="A21" s="294"/>
-      <c r="B21" s="297"/>
-      <c r="C21" s="305"/>
+      <c r="A21" s="205"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="210"/>
       <c r="D21" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="228"/>
+      <c r="E21" s="217"/>
       <c r="F21" s="119">
         <v>0.54</v>
       </c>
@@ -4872,13 +4842,13 @@
       <c r="M21" s="87"/>
     </row>
     <row r="22" spans="1:13" ht="38.25">
-      <c r="A22" s="294"/>
-      <c r="B22" s="297"/>
-      <c r="C22" s="305"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="210"/>
       <c r="D22" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="229"/>
+      <c r="E22" s="218"/>
       <c r="F22" s="120">
         <v>0.54</v>
       </c>
@@ -4893,13 +4863,13 @@
       <c r="M22" s="87"/>
     </row>
     <row r="23" spans="1:13" ht="38.25">
-      <c r="A23" s="294"/>
-      <c r="B23" s="297"/>
-      <c r="C23" s="305"/>
+      <c r="A23" s="205"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="210"/>
       <c r="D23" s="105" t="s">
         <v>326</v>
       </c>
-      <c r="E23" s="229"/>
+      <c r="E23" s="218"/>
       <c r="F23" s="119">
         <v>0.54</v>
       </c>
@@ -4914,13 +4884,13 @@
       <c r="M23" s="87"/>
     </row>
     <row r="24" spans="1:13" ht="25.5">
-      <c r="A24" s="294"/>
-      <c r="B24" s="297"/>
-      <c r="C24" s="305"/>
+      <c r="A24" s="205"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="210"/>
       <c r="D24" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="229"/>
+      <c r="E24" s="218"/>
       <c r="F24" s="119">
         <v>0.54</v>
       </c>
@@ -4935,13 +4905,13 @@
       <c r="M24" s="87"/>
     </row>
     <row r="25" spans="1:13" ht="25.5">
-      <c r="A25" s="336"/>
-      <c r="B25" s="336"/>
-      <c r="C25" s="306"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="211"/>
       <c r="D25" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="230"/>
+      <c r="E25" s="219"/>
       <c r="F25" s="160">
         <v>0.5</v>
       </c>
@@ -4955,14 +4925,14 @@
       <c r="L25" s="5"/>
       <c r="M25" s="87"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
-      <c r="A26" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="296" t="s">
+    <row r="26" spans="1:13" ht="15">
+      <c r="A26" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="299" t="s">
+      <c r="C26" s="202" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="125" t="s">
@@ -4985,14 +4955,14 @@
       <c r="L26" s="134"/>
       <c r="M26" s="135"/>
     </row>
-    <row r="27" spans="1:13" ht="38.25">
-      <c r="A27" s="294"/>
-      <c r="B27" s="297"/>
-      <c r="C27" s="337"/>
+    <row r="27" spans="1:13" ht="25.5">
+      <c r="A27" s="205"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="213"/>
       <c r="D27" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="231"/>
+      <c r="E27" s="220"/>
       <c r="F27" s="74">
         <v>0.56000000000000005</v>
       </c>
@@ -5007,13 +4977,13 @@
       <c r="M27" s="87"/>
     </row>
     <row r="28" spans="1:13" ht="25.5">
-      <c r="A28" s="294"/>
-      <c r="B28" s="297"/>
-      <c r="C28" s="337"/>
+      <c r="A28" s="205"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="213"/>
       <c r="D28" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="232"/>
+      <c r="E28" s="221"/>
       <c r="F28" s="74">
         <v>0.56000000000000005</v>
       </c>
@@ -5027,14 +4997,14 @@
       <c r="L28" s="5"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="25.5">
-      <c r="A29" s="294"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="337"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="205"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="213"/>
       <c r="D29" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="233"/>
+      <c r="E29" s="222"/>
       <c r="F29" s="74">
         <v>0.56000000000000005</v>
       </c>
@@ -5049,9 +5019,9 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" ht="39" customHeight="1">
-      <c r="A30" s="294"/>
-      <c r="B30" s="297"/>
-      <c r="C30" s="307" t="s">
+      <c r="A30" s="205"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="200" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="125" t="s">
@@ -5075,13 +5045,13 @@
       <c r="M30" s="135"/>
     </row>
     <row r="31" spans="1:13" ht="25.5">
-      <c r="A31" s="294"/>
-      <c r="B31" s="297"/>
-      <c r="C31" s="308"/>
+      <c r="A31" s="205"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="201"/>
       <c r="D31" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="E31" s="231"/>
+      <c r="E31" s="220"/>
       <c r="F31" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -5096,13 +5066,13 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" ht="25.5">
-      <c r="A32" s="294"/>
-      <c r="B32" s="297"/>
-      <c r="C32" s="308"/>
+      <c r="A32" s="205"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="201"/>
       <c r="D32" s="100" t="s">
         <v>292</v>
       </c>
-      <c r="E32" s="232"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -5117,13 +5087,13 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" ht="38.25">
-      <c r="A33" s="294"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="308"/>
+      <c r="A33" s="205"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="201"/>
       <c r="D33" s="100" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="233"/>
+      <c r="E33" s="222"/>
       <c r="F33" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -5138,9 +5108,9 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A34" s="294"/>
-      <c r="B34" s="297"/>
-      <c r="C34" s="301" t="s">
+      <c r="A34" s="205"/>
+      <c r="B34" s="208"/>
+      <c r="C34" s="214" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="125" t="s">
@@ -5162,87 +5132,87 @@
       <c r="M34" s="135"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1">
-      <c r="A35" s="294"/>
-      <c r="B35" s="297"/>
-      <c r="C35" s="302"/>
+      <c r="A35" s="205"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="215"/>
       <c r="D35" s="104" t="s">
         <v>294</v>
       </c>
-      <c r="E35" s="251"/>
+      <c r="E35" s="296"/>
       <c r="F35" s="73">
         <v>0.5</v>
       </c>
-      <c r="G35" s="269" t="s">
+      <c r="G35" s="268" t="s">
         <v>366</v>
       </c>
-      <c r="H35" s="277"/>
-      <c r="I35" s="278"/>
+      <c r="H35" s="276"/>
+      <c r="I35" s="277"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1">
-      <c r="A36" s="294"/>
-      <c r="B36" s="297"/>
-      <c r="C36" s="302"/>
+      <c r="A36" s="205"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="215"/>
       <c r="D36" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="E36" s="252"/>
+      <c r="E36" s="297"/>
       <c r="F36" s="73">
         <v>0.5</v>
       </c>
-      <c r="G36" s="279"/>
-      <c r="H36" s="280"/>
-      <c r="I36" s="281"/>
+      <c r="G36" s="278"/>
+      <c r="H36" s="279"/>
+      <c r="I36" s="280"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" ht="40.5" customHeight="1">
-      <c r="A37" s="294"/>
-      <c r="B37" s="297"/>
-      <c r="C37" s="302"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="208"/>
+      <c r="C37" s="215"/>
       <c r="D37" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="252"/>
+      <c r="E37" s="297"/>
       <c r="F37" s="73">
         <v>0.5</v>
       </c>
-      <c r="G37" s="279"/>
-      <c r="H37" s="280"/>
-      <c r="I37" s="281"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="280"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" ht="32.25" customHeight="1">
-      <c r="A38" s="294"/>
-      <c r="B38" s="297"/>
-      <c r="C38" s="303"/>
+      <c r="A38" s="205"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="216"/>
       <c r="D38" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="E38" s="253"/>
+      <c r="E38" s="298"/>
       <c r="F38" s="73">
         <v>0.5</v>
       </c>
-      <c r="G38" s="282"/>
-      <c r="H38" s="283"/>
-      <c r="I38" s="284"/>
+      <c r="G38" s="281"/>
+      <c r="H38" s="282"/>
+      <c r="I38" s="283"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="33" customHeight="1">
-      <c r="A39" s="294"/>
-      <c r="B39" s="297"/>
-      <c r="C39" s="307" t="s">
+      <c r="A39" s="205"/>
+      <c r="B39" s="208"/>
+      <c r="C39" s="200" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="125" t="s">
@@ -5264,87 +5234,87 @@
       <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A40" s="294"/>
-      <c r="B40" s="297"/>
-      <c r="C40" s="308"/>
+      <c r="A40" s="205"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="201"/>
       <c r="D40" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="251"/>
+      <c r="E40" s="296"/>
       <c r="F40" s="73">
         <v>1</v>
       </c>
-      <c r="G40" s="188" t="s">
+      <c r="G40" s="259" t="s">
         <v>363</v>
       </c>
-      <c r="H40" s="189"/>
-      <c r="I40" s="190"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="261"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="87"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A41" s="294"/>
-      <c r="B41" s="297"/>
-      <c r="C41" s="308"/>
+      <c r="A41" s="205"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="201"/>
       <c r="D41" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="252"/>
+      <c r="E41" s="297"/>
       <c r="F41" s="73">
         <v>0.33</v>
       </c>
-      <c r="G41" s="188" t="s">
+      <c r="G41" s="259" t="s">
         <v>366</v>
       </c>
-      <c r="H41" s="189"/>
-      <c r="I41" s="190"/>
+      <c r="H41" s="260"/>
+      <c r="I41" s="261"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="87"/>
     </row>
     <row r="42" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A42" s="294"/>
-      <c r="B42" s="297"/>
-      <c r="C42" s="308"/>
+      <c r="A42" s="205"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="201"/>
       <c r="D42" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="252"/>
-      <c r="F42" s="263" t="s">
+      <c r="E42" s="297"/>
+      <c r="F42" s="262" t="s">
         <v>353</v>
       </c>
-      <c r="G42" s="264"/>
-      <c r="H42" s="264"/>
-      <c r="I42" s="265"/>
+      <c r="G42" s="263"/>
+      <c r="H42" s="263"/>
+      <c r="I42" s="264"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="87"/>
     </row>
     <row r="43" spans="1:13" ht="25.5">
-      <c r="A43" s="294"/>
-      <c r="B43" s="297"/>
-      <c r="C43" s="308"/>
+      <c r="A43" s="205"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="201"/>
       <c r="D43" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="253"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="268"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="265"/>
+      <c r="G43" s="266"/>
+      <c r="H43" s="266"/>
+      <c r="I43" s="267"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="87"/>
     </row>
-    <row r="44" spans="1:13" ht="38.25">
-      <c r="A44" s="294"/>
-      <c r="B44" s="297"/>
-      <c r="C44" s="307" t="s">
+    <row r="44" spans="1:13" ht="39.4">
+      <c r="A44" s="205"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="200" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="137" t="s">
@@ -5368,34 +5338,34 @@
       <c r="M44" s="135"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="294"/>
-      <c r="B45" s="297"/>
-      <c r="C45" s="308"/>
+      <c r="A45" s="205"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="201"/>
       <c r="D45" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="E45" s="228"/>
+      <c r="E45" s="217"/>
       <c r="F45" s="74">
         <v>1</v>
       </c>
-      <c r="G45" s="191" t="s">
+      <c r="G45" s="319" t="s">
         <v>370</v>
       </c>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
+      <c r="H45" s="319"/>
+      <c r="I45" s="319"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="87"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
-      <c r="A46" s="294"/>
-      <c r="B46" s="297"/>
-      <c r="C46" s="308"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="201"/>
       <c r="D46" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="E46" s="229"/>
+      <c r="E46" s="218"/>
       <c r="F46" s="164"/>
       <c r="G46" s="186"/>
       <c r="H46" s="186"/>
@@ -5406,30 +5376,30 @@
       <c r="M46" s="87"/>
     </row>
     <row r="47" spans="1:13" ht="38.25">
-      <c r="A47" s="294"/>
-      <c r="B47" s="297"/>
-      <c r="C47" s="308"/>
+      <c r="A47" s="205"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="201"/>
       <c r="D47" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="230"/>
+      <c r="E47" s="219"/>
       <c r="F47" s="164"/>
-      <c r="G47" s="275" t="s">
+      <c r="G47" s="274" t="s">
         <v>282</v>
       </c>
-      <c r="H47" s="275"/>
-      <c r="I47" s="276"/>
+      <c r="H47" s="274"/>
+      <c r="I47" s="275"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="87"/>
     </row>
     <row r="48" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A48" s="294"/>
-      <c r="B48" s="290" t="s">
+      <c r="A48" s="205"/>
+      <c r="B48" s="241" t="s">
         <v>287</v>
       </c>
-      <c r="C48" s="307" t="s">
+      <c r="C48" s="200" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="124" t="s">
@@ -5453,13 +5423,13 @@
       <c r="M48" s="135"/>
     </row>
     <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="294"/>
-      <c r="B49" s="290"/>
-      <c r="C49" s="308"/>
+      <c r="A49" s="205"/>
+      <c r="B49" s="241"/>
+      <c r="C49" s="201"/>
       <c r="D49" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="E49" s="228"/>
+      <c r="E49" s="217"/>
       <c r="F49" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -5474,13 +5444,13 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" ht="38.25">
-      <c r="A50" s="294"/>
-      <c r="B50" s="290"/>
-      <c r="C50" s="308"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="241"/>
+      <c r="C50" s="201"/>
       <c r="D50" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="229"/>
+      <c r="E50" s="218"/>
       <c r="F50" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -5495,13 +5465,13 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" ht="25.5">
-      <c r="A51" s="294"/>
-      <c r="B51" s="290"/>
-      <c r="C51" s="308"/>
+      <c r="A51" s="205"/>
+      <c r="B51" s="241"/>
+      <c r="C51" s="201"/>
       <c r="D51" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="230"/>
+      <c r="E51" s="219"/>
       <c r="F51" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -5515,12 +5485,12 @@
       <c r="L51" s="5"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="294"/>
-      <c r="B52" s="311" t="s">
+    <row r="52" spans="1:13" ht="15">
+      <c r="A52" s="205"/>
+      <c r="B52" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="307" t="s">
+      <c r="C52" s="200" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="124" t="s">
@@ -5544,13 +5514,13 @@
       <c r="M52" s="135"/>
     </row>
     <row r="53" spans="1:13" ht="25.5">
-      <c r="A53" s="294"/>
-      <c r="B53" s="321"/>
-      <c r="C53" s="308"/>
+      <c r="A53" s="205"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="201"/>
       <c r="D53" s="104" t="s">
         <v>301</v>
       </c>
-      <c r="E53" s="216"/>
+      <c r="E53" s="299"/>
       <c r="F53" s="73">
         <v>0.77</v>
       </c>
@@ -5565,13 +5535,13 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="38.25">
-      <c r="A54" s="294"/>
-      <c r="B54" s="321"/>
-      <c r="C54" s="308"/>
+      <c r="A54" s="205"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="201"/>
       <c r="D54" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="E54" s="217"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="74">
         <v>0.59</v>
       </c>
@@ -5586,13 +5556,13 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" ht="25.5">
-      <c r="A55" s="294"/>
-      <c r="B55" s="321"/>
-      <c r="C55" s="308"/>
+      <c r="A55" s="205"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="201"/>
       <c r="D55" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="E55" s="218"/>
+      <c r="E55" s="301"/>
       <c r="F55" s="74">
         <v>0.59</v>
       </c>
@@ -5606,10 +5576,10 @@
       <c r="L55" s="5"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="25.5">
-      <c r="A56" s="294"/>
-      <c r="B56" s="321"/>
-      <c r="C56" s="307" t="s">
+    <row r="56" spans="1:13" ht="26.25">
+      <c r="A56" s="205"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="200" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="125" t="s">
@@ -5629,81 +5599,81 @@
       <c r="M56" s="90"/>
     </row>
     <row r="57" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A57" s="294"/>
-      <c r="B57" s="321"/>
-      <c r="C57" s="308"/>
+      <c r="A57" s="205"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="201"/>
       <c r="D57" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="E57" s="254"/>
-      <c r="F57" s="254"/>
-      <c r="G57" s="313" t="s">
+      <c r="E57" s="302"/>
+      <c r="F57" s="302"/>
+      <c r="G57" s="249" t="s">
         <v>283</v>
       </c>
-      <c r="H57" s="313"/>
-      <c r="I57" s="314"/>
+      <c r="H57" s="249"/>
+      <c r="I57" s="250"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="294"/>
-      <c r="B58" s="321"/>
-      <c r="C58" s="308"/>
+      <c r="A58" s="205"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="201"/>
       <c r="D58" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="E58" s="255"/>
-      <c r="F58" s="255"/>
-      <c r="G58" s="315"/>
-      <c r="H58" s="315"/>
-      <c r="I58" s="316"/>
+      <c r="E58" s="303"/>
+      <c r="F58" s="303"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="251"/>
+      <c r="I58" s="252"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13" ht="25.5">
-      <c r="A59" s="294"/>
-      <c r="B59" s="321"/>
-      <c r="C59" s="308"/>
+      <c r="A59" s="205"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="201"/>
       <c r="D59" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="E59" s="255"/>
-      <c r="F59" s="255"/>
-      <c r="G59" s="315"/>
-      <c r="H59" s="315"/>
-      <c r="I59" s="316"/>
+      <c r="E59" s="303"/>
+      <c r="F59" s="303"/>
+      <c r="G59" s="251"/>
+      <c r="H59" s="251"/>
+      <c r="I59" s="252"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A60" s="294"/>
-      <c r="B60" s="321"/>
-      <c r="C60" s="308"/>
+      <c r="A60" s="205"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="201"/>
       <c r="D60" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="E60" s="256"/>
-      <c r="F60" s="256"/>
-      <c r="G60" s="317"/>
-      <c r="H60" s="317"/>
-      <c r="I60" s="318"/>
+      <c r="E60" s="304"/>
+      <c r="F60" s="304"/>
+      <c r="G60" s="253"/>
+      <c r="H60" s="253"/>
+      <c r="I60" s="254"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="38.25">
-      <c r="A61" s="294"/>
-      <c r="B61" s="311" t="s">
+    <row r="61" spans="1:13" ht="39.4">
+      <c r="A61" s="205"/>
+      <c r="B61" s="198" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="304" t="s">
+      <c r="C61" s="209" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="123" t="s">
@@ -5727,34 +5697,34 @@
       <c r="M61" s="135"/>
     </row>
     <row r="62" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A62" s="294"/>
-      <c r="B62" s="321"/>
-      <c r="C62" s="305"/>
+      <c r="A62" s="205"/>
+      <c r="B62" s="199"/>
+      <c r="C62" s="210"/>
       <c r="D62" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="216"/>
+      <c r="E62" s="299"/>
       <c r="F62" s="74">
         <v>1</v>
       </c>
-      <c r="G62" s="240" t="s">
+      <c r="G62" s="242" t="s">
         <v>362</v>
       </c>
-      <c r="H62" s="241"/>
-      <c r="I62" s="242"/>
+      <c r="H62" s="257"/>
+      <c r="I62" s="258"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="294"/>
-      <c r="B63" s="321"/>
-      <c r="C63" s="305"/>
+      <c r="A63" s="205"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="210"/>
       <c r="D63" s="105" t="s">
         <v>311</v>
       </c>
-      <c r="E63" s="217"/>
+      <c r="E63" s="300"/>
       <c r="F63" s="73">
         <v>0.7</v>
       </c>
@@ -5769,13 +5739,13 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="294"/>
-      <c r="B64" s="321"/>
-      <c r="C64" s="305"/>
+      <c r="A64" s="205"/>
+      <c r="B64" s="199"/>
+      <c r="C64" s="210"/>
       <c r="D64" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="E64" s="217"/>
+      <c r="E64" s="300"/>
       <c r="F64" s="73">
         <v>0.7</v>
       </c>
@@ -5790,13 +5760,13 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13" ht="25.5">
-      <c r="A65" s="294"/>
-      <c r="B65" s="321"/>
-      <c r="C65" s="335"/>
+      <c r="A65" s="205"/>
+      <c r="B65" s="199"/>
+      <c r="C65" s="227"/>
       <c r="D65" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="E65" s="217"/>
+      <c r="E65" s="300"/>
       <c r="F65" s="121">
         <v>0.35</v>
       </c>
@@ -5811,47 +5781,47 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="294"/>
-      <c r="B66" s="321"/>
-      <c r="C66" s="335"/>
+      <c r="A66" s="205"/>
+      <c r="B66" s="199"/>
+      <c r="C66" s="227"/>
       <c r="D66" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="E66" s="217"/>
-      <c r="F66" s="257" t="s">
+      <c r="E66" s="300"/>
+      <c r="F66" s="305" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="258"/>
-      <c r="H66" s="258"/>
-      <c r="I66" s="259"/>
+      <c r="G66" s="306"/>
+      <c r="H66" s="306"/>
+      <c r="I66" s="307"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
-      <c r="A67" s="294"/>
-      <c r="B67" s="321"/>
-      <c r="C67" s="306"/>
+      <c r="A67" s="205"/>
+      <c r="B67" s="199"/>
+      <c r="C67" s="211"/>
       <c r="D67" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="E67" s="218"/>
-      <c r="F67" s="260" t="s">
+      <c r="E67" s="301"/>
+      <c r="F67" s="308" t="s">
         <v>283</v>
       </c>
-      <c r="G67" s="261"/>
-      <c r="H67" s="261"/>
-      <c r="I67" s="262"/>
+      <c r="G67" s="309"/>
+      <c r="H67" s="309"/>
+      <c r="I67" s="310"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1">
-      <c r="A68" s="294"/>
-      <c r="B68" s="321"/>
-      <c r="C68" s="309" t="s">
+      <c r="A68" s="205"/>
+      <c r="B68" s="199"/>
+      <c r="C68" s="246" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="124" t="s">
@@ -5873,68 +5843,68 @@
       <c r="M68" s="135"/>
     </row>
     <row r="69" spans="1:13" ht="25.5">
-      <c r="A69" s="294"/>
-      <c r="B69" s="321"/>
-      <c r="C69" s="310"/>
+      <c r="A69" s="205"/>
+      <c r="B69" s="199"/>
+      <c r="C69" s="247"/>
       <c r="D69" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="E69" s="231"/>
+      <c r="E69" s="220"/>
       <c r="F69" s="74">
         <v>1</v>
       </c>
-      <c r="G69" s="192" t="s">
+      <c r="G69" s="189" t="s">
         <v>370</v>
       </c>
-      <c r="H69" s="193"/>
-      <c r="I69" s="194"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="191"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13" ht="25.5">
-      <c r="A70" s="294"/>
-      <c r="B70" s="321"/>
-      <c r="C70" s="310"/>
+      <c r="A70" s="205"/>
+      <c r="B70" s="199"/>
+      <c r="C70" s="247"/>
       <c r="D70" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="E70" s="232"/>
+      <c r="E70" s="221"/>
       <c r="F70" s="121">
         <v>1</v>
       </c>
-      <c r="G70" s="195"/>
-      <c r="H70" s="196"/>
-      <c r="I70" s="197"/>
+      <c r="G70" s="192"/>
+      <c r="H70" s="193"/>
+      <c r="I70" s="194"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13" ht="25.5">
-      <c r="A71" s="294"/>
-      <c r="B71" s="321"/>
-      <c r="C71" s="310"/>
+      <c r="A71" s="205"/>
+      <c r="B71" s="199"/>
+      <c r="C71" s="247"/>
       <c r="D71" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="E71" s="233"/>
+      <c r="E71" s="222"/>
       <c r="F71" s="121">
         <v>1</v>
       </c>
-      <c r="G71" s="198"/>
-      <c r="H71" s="199"/>
-      <c r="I71" s="200"/>
+      <c r="G71" s="195"/>
+      <c r="H71" s="196"/>
+      <c r="I71" s="197"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13" ht="45" customHeight="1">
-      <c r="A72" s="294"/>
-      <c r="B72" s="321"/>
-      <c r="C72" s="307" t="s">
+      <c r="A72" s="205"/>
+      <c r="B72" s="199"/>
+      <c r="C72" s="200" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="125" t="s">
@@ -5956,72 +5926,72 @@
       <c r="M72" s="135"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1">
-      <c r="A73" s="294"/>
-      <c r="B73" s="321"/>
-      <c r="C73" s="308"/>
+      <c r="A73" s="205"/>
+      <c r="B73" s="199"/>
+      <c r="C73" s="201"/>
       <c r="D73" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="E73" s="231"/>
+      <c r="E73" s="220"/>
       <c r="F73" s="121">
         <v>1</v>
       </c>
-      <c r="G73" s="201" t="s">
+      <c r="G73" s="287" t="s">
         <v>370</v>
       </c>
-      <c r="H73" s="202"/>
-      <c r="I73" s="203"/>
+      <c r="H73" s="288"/>
+      <c r="I73" s="289"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="294"/>
-      <c r="B74" s="321"/>
-      <c r="C74" s="308"/>
+      <c r="A74" s="205"/>
+      <c r="B74" s="199"/>
+      <c r="C74" s="201"/>
       <c r="D74" s="105" t="s">
         <v>313</v>
       </c>
-      <c r="E74" s="232"/>
+      <c r="E74" s="221"/>
       <c r="F74" s="121">
         <v>1</v>
       </c>
-      <c r="G74" s="204"/>
-      <c r="H74" s="205"/>
-      <c r="I74" s="206"/>
+      <c r="G74" s="290"/>
+      <c r="H74" s="291"/>
+      <c r="I74" s="292"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" ht="25.5">
-      <c r="A75" s="295"/>
-      <c r="B75" s="321"/>
-      <c r="C75" s="308"/>
+      <c r="A75" s="212"/>
+      <c r="B75" s="199"/>
+      <c r="C75" s="201"/>
       <c r="D75" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="E75" s="233"/>
+      <c r="E75" s="222"/>
       <c r="F75" s="121">
         <v>1</v>
       </c>
-      <c r="G75" s="207"/>
-      <c r="H75" s="208"/>
-      <c r="I75" s="209"/>
+      <c r="G75" s="293"/>
+      <c r="H75" s="294"/>
+      <c r="I75" s="295"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
-      <c r="A76" s="293" t="s">
+      <c r="A76" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="311" t="s">
+      <c r="B76" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="307" t="s">
+      <c r="C76" s="200" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="124" t="s">
@@ -6045,13 +6015,13 @@
       <c r="M76" s="135"/>
     </row>
     <row r="77" spans="1:13" ht="25.5">
-      <c r="A77" s="294"/>
-      <c r="B77" s="321"/>
-      <c r="C77" s="308"/>
+      <c r="A77" s="205"/>
+      <c r="B77" s="199"/>
+      <c r="C77" s="201"/>
       <c r="D77" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="245"/>
+      <c r="E77" s="313"/>
       <c r="F77" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6066,13 +6036,13 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13" ht="25.5">
-      <c r="A78" s="294"/>
-      <c r="B78" s="321"/>
-      <c r="C78" s="308"/>
+      <c r="A78" s="205"/>
+      <c r="B78" s="199"/>
+      <c r="C78" s="201"/>
       <c r="D78" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="246"/>
+      <c r="E78" s="314"/>
       <c r="F78" s="121">
         <v>0.5</v>
       </c>
@@ -6087,13 +6057,13 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="294"/>
-      <c r="B79" s="321"/>
-      <c r="C79" s="308"/>
+      <c r="A79" s="205"/>
+      <c r="B79" s="199"/>
+      <c r="C79" s="201"/>
       <c r="D79" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="E79" s="247"/>
+      <c r="E79" s="315"/>
       <c r="F79" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6107,10 +6077,10 @@
       <c r="L79" s="5"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75">
-      <c r="A80" s="294"/>
-      <c r="B80" s="321"/>
-      <c r="C80" s="307" t="s">
+    <row r="80" spans="1:13" ht="15">
+      <c r="A80" s="205"/>
+      <c r="B80" s="199"/>
+      <c r="C80" s="200" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="124" t="s">
@@ -6134,13 +6104,13 @@
       <c r="M80" s="90"/>
     </row>
     <row r="81" spans="1:13" ht="25.5">
-      <c r="A81" s="294"/>
-      <c r="B81" s="321"/>
-      <c r="C81" s="308"/>
+      <c r="A81" s="205"/>
+      <c r="B81" s="199"/>
+      <c r="C81" s="201"/>
       <c r="D81" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="231"/>
+      <c r="E81" s="220"/>
       <c r="F81" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6155,34 +6125,34 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" ht="25.5">
-      <c r="A82" s="294"/>
-      <c r="B82" s="321"/>
-      <c r="C82" s="308"/>
+      <c r="A82" s="205"/>
+      <c r="B82" s="199"/>
+      <c r="C82" s="201"/>
       <c r="D82" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="232"/>
+      <c r="E82" s="221"/>
       <c r="F82" s="121">
         <v>1</v>
       </c>
-      <c r="G82" s="285" t="s">
+      <c r="G82" s="284" t="s">
         <v>363</v>
       </c>
-      <c r="H82" s="286"/>
-      <c r="I82" s="287"/>
+      <c r="H82" s="285"/>
+      <c r="I82" s="286"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="87"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="294"/>
-      <c r="B83" s="321"/>
-      <c r="C83" s="308"/>
+      <c r="A83" s="205"/>
+      <c r="B83" s="199"/>
+      <c r="C83" s="201"/>
       <c r="D83" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="E83" s="233"/>
+      <c r="E83" s="222"/>
       <c r="F83" s="121">
         <v>0.2</v>
       </c>
@@ -6196,10 +6166,10 @@
       <c r="L83" s="5"/>
       <c r="M83" s="87"/>
     </row>
-    <row r="84" spans="1:13" ht="25.5">
-      <c r="A84" s="294"/>
-      <c r="B84" s="321"/>
-      <c r="C84" s="299" t="s">
+    <row r="84" spans="1:13" ht="26.25">
+      <c r="A84" s="205"/>
+      <c r="B84" s="199"/>
+      <c r="C84" s="202" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="126" t="s">
@@ -6222,14 +6192,14 @@
       <c r="L84" s="134"/>
       <c r="M84" s="135"/>
     </row>
-    <row r="85" spans="1:13" ht="38.25">
-      <c r="A85" s="294"/>
-      <c r="B85" s="321"/>
-      <c r="C85" s="300"/>
+    <row r="85" spans="1:13" ht="25.5">
+      <c r="A85" s="205"/>
+      <c r="B85" s="199"/>
+      <c r="C85" s="203"/>
       <c r="D85" s="107" t="s">
         <v>327</v>
       </c>
-      <c r="E85" s="231"/>
+      <c r="E85" s="220"/>
       <c r="F85" s="74">
         <v>0.95</v>
       </c>
@@ -6244,13 +6214,13 @@
       <c r="M85" s="87"/>
     </row>
     <row r="86" spans="1:13" ht="25.5">
-      <c r="A86" s="294"/>
-      <c r="B86" s="321"/>
-      <c r="C86" s="300"/>
+      <c r="A86" s="205"/>
+      <c r="B86" s="199"/>
+      <c r="C86" s="203"/>
       <c r="D86" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="E86" s="232"/>
+      <c r="E86" s="221"/>
       <c r="F86" s="74">
         <v>0.18</v>
       </c>
@@ -6265,13 +6235,13 @@
       <c r="M86" s="87"/>
     </row>
     <row r="87" spans="1:13" ht="25.5">
-      <c r="A87" s="294"/>
-      <c r="B87" s="321"/>
-      <c r="C87" s="300"/>
+      <c r="A87" s="205"/>
+      <c r="B87" s="199"/>
+      <c r="C87" s="203"/>
       <c r="D87" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="E87" s="232"/>
+      <c r="E87" s="221"/>
       <c r="F87" s="74">
         <v>0.84</v>
       </c>
@@ -6286,53 +6256,53 @@
       <c r="M87" s="87"/>
     </row>
     <row r="88" spans="1:13" ht="38.25">
-      <c r="A88" s="294"/>
-      <c r="B88" s="321"/>
-      <c r="C88" s="300"/>
+      <c r="A88" s="205"/>
+      <c r="B88" s="199"/>
+      <c r="C88" s="203"/>
       <c r="D88" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="232"/>
+      <c r="E88" s="221"/>
       <c r="F88" s="74">
         <v>1</v>
       </c>
-      <c r="G88" s="192" t="s">
+      <c r="G88" s="189" t="s">
         <v>363</v>
       </c>
-      <c r="H88" s="193"/>
-      <c r="I88" s="194"/>
+      <c r="H88" s="190"/>
+      <c r="I88" s="191"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="87"/>
     </row>
     <row r="89" spans="1:13" ht="25.5">
-      <c r="A89" s="294"/>
-      <c r="B89" s="321"/>
-      <c r="C89" s="300"/>
+      <c r="A89" s="205"/>
+      <c r="B89" s="199"/>
+      <c r="C89" s="203"/>
       <c r="D89" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="E89" s="233"/>
+      <c r="E89" s="222"/>
       <c r="F89" s="74">
         <v>1</v>
       </c>
-      <c r="G89" s="198"/>
-      <c r="H89" s="199"/>
-      <c r="I89" s="200"/>
+      <c r="G89" s="195"/>
+      <c r="H89" s="196"/>
+      <c r="I89" s="197"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="87"/>
     </row>
-    <row r="90" spans="1:13" ht="25.5">
-      <c r="A90" s="293" t="s">
+    <row r="90" spans="1:13" ht="26.25">
+      <c r="A90" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="311" t="s">
+      <c r="B90" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="299" t="s">
+      <c r="C90" s="202" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="125" t="s">
@@ -6356,34 +6326,34 @@
       <c r="M90" s="135"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="294"/>
-      <c r="B91" s="321"/>
-      <c r="C91" s="300"/>
+      <c r="A91" s="205"/>
+      <c r="B91" s="199"/>
+      <c r="C91" s="203"/>
       <c r="D91" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="231"/>
+      <c r="E91" s="220"/>
       <c r="F91" s="74">
         <v>1</v>
       </c>
-      <c r="G91" s="240" t="s">
+      <c r="G91" s="242" t="s">
         <v>362</v>
       </c>
-      <c r="H91" s="241"/>
-      <c r="I91" s="242"/>
+      <c r="H91" s="257"/>
+      <c r="I91" s="258"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="87"/>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="294"/>
-      <c r="B92" s="321"/>
-      <c r="C92" s="300"/>
+      <c r="A92" s="205"/>
+      <c r="B92" s="199"/>
+      <c r="C92" s="203"/>
       <c r="D92" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="E92" s="232"/>
+      <c r="E92" s="221"/>
       <c r="F92" s="74">
         <v>0.75</v>
       </c>
@@ -6398,13 +6368,13 @@
       <c r="M92" s="87"/>
     </row>
     <row r="93" spans="1:13" ht="25.5">
-      <c r="A93" s="294"/>
-      <c r="B93" s="321"/>
-      <c r="C93" s="300"/>
+      <c r="A93" s="205"/>
+      <c r="B93" s="199"/>
+      <c r="C93" s="203"/>
       <c r="D93" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="233"/>
+      <c r="E93" s="222"/>
       <c r="F93" s="74">
         <v>0.55000000000000004</v>
       </c>
@@ -6418,10 +6388,10 @@
       <c r="L93" s="5"/>
       <c r="M93" s="87"/>
     </row>
-    <row r="94" spans="1:13" ht="25.5">
-      <c r="A94" s="294"/>
-      <c r="B94" s="321"/>
-      <c r="C94" s="299" t="s">
+    <row r="94" spans="1:13" ht="26.25">
+      <c r="A94" s="205"/>
+      <c r="B94" s="199"/>
+      <c r="C94" s="202" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="125" t="s">
@@ -6445,34 +6415,34 @@
       <c r="M94" s="135"/>
     </row>
     <row r="95" spans="1:13" ht="25.5">
-      <c r="A95" s="294"/>
-      <c r="B95" s="321"/>
-      <c r="C95" s="300"/>
+      <c r="A95" s="205"/>
+      <c r="B95" s="199"/>
+      <c r="C95" s="203"/>
       <c r="D95" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="231"/>
+      <c r="E95" s="220"/>
       <c r="F95" s="74">
         <v>1</v>
       </c>
-      <c r="G95" s="240" t="s">
+      <c r="G95" s="242" t="s">
         <v>362</v>
       </c>
-      <c r="H95" s="241"/>
-      <c r="I95" s="242"/>
+      <c r="H95" s="257"/>
+      <c r="I95" s="258"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="87"/>
     </row>
     <row r="96" spans="1:13" ht="25.5">
-      <c r="A96" s="294"/>
-      <c r="B96" s="321"/>
-      <c r="C96" s="300"/>
+      <c r="A96" s="205"/>
+      <c r="B96" s="199"/>
+      <c r="C96" s="203"/>
       <c r="D96" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="E96" s="232"/>
+      <c r="E96" s="221"/>
       <c r="F96" s="74">
         <v>0.7</v>
       </c>
@@ -6487,28 +6457,28 @@
       <c r="M96" s="87"/>
     </row>
     <row r="97" spans="1:13" ht="25.5">
-      <c r="A97" s="294"/>
-      <c r="B97" s="321"/>
-      <c r="C97" s="300"/>
+      <c r="A97" s="205"/>
+      <c r="B97" s="199"/>
+      <c r="C97" s="203"/>
       <c r="D97" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="233"/>
+      <c r="E97" s="222"/>
       <c r="F97" s="165"/>
-      <c r="G97" s="220" t="s">
+      <c r="G97" s="228" t="s">
         <v>284</v>
       </c>
-      <c r="H97" s="220"/>
-      <c r="I97" s="221"/>
+      <c r="H97" s="228"/>
+      <c r="I97" s="229"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="87"/>
     </row>
-    <row r="98" spans="1:13" ht="38.25">
-      <c r="A98" s="294"/>
-      <c r="B98" s="321"/>
-      <c r="C98" s="299" t="s">
+    <row r="98" spans="1:13" ht="26.25">
+      <c r="A98" s="205"/>
+      <c r="B98" s="199"/>
+      <c r="C98" s="202" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="125" t="s">
@@ -6532,34 +6502,34 @@
       <c r="M98" s="135"/>
     </row>
     <row r="99" spans="1:13" ht="25.5">
-      <c r="A99" s="294"/>
-      <c r="B99" s="321"/>
-      <c r="C99" s="300"/>
+      <c r="A99" s="205"/>
+      <c r="B99" s="199"/>
+      <c r="C99" s="203"/>
       <c r="D99" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="228"/>
+      <c r="E99" s="217"/>
       <c r="F99" s="74">
         <v>1</v>
       </c>
-      <c r="G99" s="240" t="s">
+      <c r="G99" s="242" t="s">
         <v>355</v>
       </c>
-      <c r="H99" s="241"/>
-      <c r="I99" s="242"/>
+      <c r="H99" s="257"/>
+      <c r="I99" s="258"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="87"/>
     </row>
     <row r="100" spans="1:13" ht="25.5">
-      <c r="A100" s="294"/>
-      <c r="B100" s="321"/>
-      <c r="C100" s="300"/>
+      <c r="A100" s="205"/>
+      <c r="B100" s="199"/>
+      <c r="C100" s="203"/>
       <c r="D100" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="229"/>
+      <c r="E100" s="218"/>
       <c r="F100" s="74">
         <v>0.75</v>
       </c>
@@ -6574,28 +6544,28 @@
       <c r="M100" s="87"/>
     </row>
     <row r="101" spans="1:13" ht="38.25">
-      <c r="A101" s="294"/>
-      <c r="B101" s="321"/>
-      <c r="C101" s="300"/>
+      <c r="A101" s="205"/>
+      <c r="B101" s="199"/>
+      <c r="C101" s="203"/>
       <c r="D101" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="230"/>
+      <c r="E101" s="219"/>
       <c r="F101" s="167"/>
-      <c r="G101" s="273" t="s">
+      <c r="G101" s="272" t="s">
         <v>283</v>
       </c>
-      <c r="H101" s="273"/>
-      <c r="I101" s="274"/>
+      <c r="H101" s="272"/>
+      <c r="I101" s="273"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="51">
-      <c r="A102" s="294"/>
-      <c r="B102" s="321"/>
-      <c r="C102" s="299" t="s">
+    <row r="102" spans="1:13" ht="52.5">
+      <c r="A102" s="205"/>
+      <c r="B102" s="199"/>
+      <c r="C102" s="202" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="125" t="s">
@@ -6619,13 +6589,13 @@
       <c r="M102" s="135"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="294"/>
-      <c r="B103" s="321"/>
-      <c r="C103" s="300"/>
+      <c r="A103" s="205"/>
+      <c r="B103" s="199"/>
+      <c r="C103" s="203"/>
       <c r="D103" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="E103" s="248"/>
+      <c r="E103" s="316"/>
       <c r="F103" s="73">
         <v>0.5</v>
       </c>
@@ -6640,45 +6610,45 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="1:13" ht="25.5">
-      <c r="A104" s="294"/>
-      <c r="B104" s="321"/>
-      <c r="C104" s="300"/>
+      <c r="A104" s="205"/>
+      <c r="B104" s="199"/>
+      <c r="C104" s="203"/>
       <c r="D104" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="249"/>
+      <c r="E104" s="317"/>
       <c r="F104" s="168"/>
-      <c r="G104" s="269" t="s">
+      <c r="G104" s="268" t="s">
         <v>353</v>
       </c>
-      <c r="H104" s="264"/>
-      <c r="I104" s="265"/>
+      <c r="H104" s="263"/>
+      <c r="I104" s="264"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="87"/>
     </row>
     <row r="105" spans="1:13" ht="25.5">
-      <c r="A105" s="294"/>
-      <c r="B105" s="321"/>
-      <c r="C105" s="300"/>
+      <c r="A105" s="205"/>
+      <c r="B105" s="199"/>
+      <c r="C105" s="203"/>
       <c r="D105" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="E105" s="250"/>
+      <c r="E105" s="318"/>
       <c r="F105" s="168"/>
-      <c r="G105" s="266"/>
-      <c r="H105" s="267"/>
-      <c r="I105" s="268"/>
+      <c r="G105" s="265"/>
+      <c r="H105" s="266"/>
+      <c r="I105" s="267"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="87"/>
     </row>
-    <row r="106" spans="1:13" ht="25.5">
-      <c r="A106" s="294"/>
-      <c r="B106" s="321"/>
-      <c r="C106" s="307" t="s">
+    <row r="106" spans="1:13" ht="26.25">
+      <c r="A106" s="205"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="200" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="124" t="s">
@@ -6702,13 +6672,13 @@
       <c r="M106" s="135"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="294"/>
-      <c r="B107" s="321"/>
-      <c r="C107" s="308"/>
+      <c r="A107" s="205"/>
+      <c r="B107" s="199"/>
+      <c r="C107" s="201"/>
       <c r="D107" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="E107" s="228"/>
+      <c r="E107" s="217"/>
       <c r="F107" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6722,14 +6692,14 @@
       <c r="L107" s="5"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="25.5">
-      <c r="A108" s="294"/>
-      <c r="B108" s="321"/>
-      <c r="C108" s="308"/>
+    <row r="108" spans="1:13">
+      <c r="A108" s="205"/>
+      <c r="B108" s="199"/>
+      <c r="C108" s="201"/>
       <c r="D108" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E108" s="229"/>
+      <c r="E108" s="218"/>
       <c r="F108" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6744,13 +6714,13 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="1:13" ht="25.5">
-      <c r="A109" s="294"/>
-      <c r="B109" s="321"/>
-      <c r="C109" s="308"/>
+      <c r="A109" s="205"/>
+      <c r="B109" s="199"/>
+      <c r="C109" s="201"/>
       <c r="D109" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="230"/>
+      <c r="E109" s="219"/>
       <c r="F109" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6764,10 +6734,10 @@
       <c r="L109" s="5"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="38.25">
-      <c r="A110" s="294"/>
-      <c r="B110" s="321"/>
-      <c r="C110" s="307" t="s">
+    <row r="110" spans="1:13" ht="39.4">
+      <c r="A110" s="205"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="200" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="125" t="s">
@@ -6789,72 +6759,72 @@
       <c r="M110" s="135"/>
     </row>
     <row r="111" spans="1:13" ht="38.25">
-      <c r="A111" s="294"/>
-      <c r="B111" s="321"/>
-      <c r="C111" s="308"/>
+      <c r="A111" s="205"/>
+      <c r="B111" s="199"/>
+      <c r="C111" s="201"/>
       <c r="D111" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="E111" s="228"/>
+      <c r="E111" s="217"/>
       <c r="F111" s="74">
         <v>0.1</v>
       </c>
-      <c r="G111" s="322" t="s">
+      <c r="G111" s="230" t="s">
         <v>351</v>
       </c>
-      <c r="H111" s="323"/>
-      <c r="I111" s="324"/>
+      <c r="H111" s="231"/>
+      <c r="I111" s="232"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="57"/>
     </row>
     <row r="112" spans="1:13" ht="38.25">
-      <c r="A112" s="294"/>
-      <c r="B112" s="321"/>
-      <c r="C112" s="308"/>
+      <c r="A112" s="205"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="201"/>
       <c r="D112" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="E112" s="229"/>
+      <c r="E112" s="218"/>
       <c r="F112" s="74">
         <v>0.1</v>
       </c>
-      <c r="G112" s="325"/>
-      <c r="H112" s="326"/>
-      <c r="I112" s="327"/>
+      <c r="G112" s="233"/>
+      <c r="H112" s="234"/>
+      <c r="I112" s="235"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="1:13" ht="38.25">
-      <c r="A113" s="294"/>
-      <c r="B113" s="321"/>
-      <c r="C113" s="308"/>
+      <c r="A113" s="205"/>
+      <c r="B113" s="199"/>
+      <c r="C113" s="201"/>
       <c r="D113" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="E113" s="230"/>
+      <c r="E113" s="219"/>
       <c r="F113" s="74">
         <v>0.1</v>
       </c>
-      <c r="G113" s="328"/>
-      <c r="H113" s="329"/>
-      <c r="I113" s="330"/>
+      <c r="G113" s="236"/>
+      <c r="H113" s="237"/>
+      <c r="I113" s="238"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="1:13" ht="33" customHeight="1">
-      <c r="A114" s="293" t="s">
+      <c r="A114" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="296" t="s">
+      <c r="B114" s="207" t="s">
         <v>359</v>
       </c>
-      <c r="C114" s="307" t="s">
+      <c r="C114" s="200" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="124" t="s">
@@ -6878,13 +6848,13 @@
       <c r="M114" s="135"/>
     </row>
     <row r="115" spans="1:13" ht="25.5">
-      <c r="A115" s="294"/>
-      <c r="B115" s="297"/>
-      <c r="C115" s="308"/>
+      <c r="A115" s="205"/>
+      <c r="B115" s="208"/>
+      <c r="C115" s="201"/>
       <c r="D115" s="107" t="s">
         <v>324</v>
       </c>
-      <c r="E115" s="228"/>
+      <c r="E115" s="217"/>
       <c r="F115" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -6899,13 +6869,13 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="25.5">
-      <c r="A116" s="294"/>
-      <c r="B116" s="297"/>
-      <c r="C116" s="308"/>
+      <c r="A116" s="205"/>
+      <c r="B116" s="208"/>
+      <c r="C116" s="201"/>
       <c r="D116" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="E116" s="229"/>
+      <c r="E116" s="218"/>
       <c r="F116" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6920,13 +6890,13 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="294"/>
-      <c r="B117" s="297"/>
-      <c r="C117" s="308"/>
+      <c r="A117" s="205"/>
+      <c r="B117" s="208"/>
+      <c r="C117" s="201"/>
       <c r="D117" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="E117" s="230"/>
+      <c r="E117" s="219"/>
       <c r="F117" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -6940,10 +6910,10 @@
       <c r="L117" s="5"/>
       <c r="M117" s="87"/>
     </row>
-    <row r="118" spans="1:13" ht="15.75">
-      <c r="A118" s="294"/>
-      <c r="B118" s="297"/>
-      <c r="C118" s="299" t="s">
+    <row r="118" spans="1:13" ht="15">
+      <c r="A118" s="205"/>
+      <c r="B118" s="208"/>
+      <c r="C118" s="202" t="s">
         <v>30</v>
       </c>
       <c r="D118" s="124" t="s">
@@ -6967,13 +6937,13 @@
       <c r="M118" s="135"/>
     </row>
     <row r="119" spans="1:13" ht="25.5">
-      <c r="A119" s="294"/>
-      <c r="B119" s="297"/>
-      <c r="C119" s="300"/>
+      <c r="A119" s="205"/>
+      <c r="B119" s="208"/>
+      <c r="C119" s="203"/>
       <c r="D119" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="E119" s="228"/>
+      <c r="E119" s="217"/>
       <c r="F119" s="122">
         <v>0.57999999999999996</v>
       </c>
@@ -6988,13 +6958,13 @@
       <c r="M119" s="87"/>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="294"/>
-      <c r="B120" s="297"/>
-      <c r="C120" s="300"/>
+      <c r="A120" s="205"/>
+      <c r="B120" s="208"/>
+      <c r="C120" s="203"/>
       <c r="D120" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="E120" s="229"/>
+      <c r="E120" s="218"/>
       <c r="F120" s="122">
         <v>0.57999999999999996</v>
       </c>
@@ -7009,13 +6979,13 @@
       <c r="M120" s="87"/>
     </row>
     <row r="121" spans="1:13" ht="25.5">
-      <c r="A121" s="294"/>
-      <c r="B121" s="297"/>
-      <c r="C121" s="300"/>
+      <c r="A121" s="205"/>
+      <c r="B121" s="208"/>
+      <c r="C121" s="203"/>
       <c r="D121" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="E121" s="229"/>
+      <c r="E121" s="218"/>
       <c r="F121" s="122">
         <v>0.57999999999999996</v>
       </c>
@@ -7030,13 +7000,13 @@
       <c r="M121" s="87"/>
     </row>
     <row r="122" spans="1:13" ht="38.25">
-      <c r="A122" s="294"/>
-      <c r="B122" s="297"/>
-      <c r="C122" s="300"/>
+      <c r="A122" s="205"/>
+      <c r="B122" s="208"/>
+      <c r="C122" s="203"/>
       <c r="D122" s="170" t="s">
         <v>208</v>
       </c>
-      <c r="E122" s="229"/>
+      <c r="E122" s="218"/>
       <c r="F122" s="122">
         <v>0.54</v>
       </c>
@@ -7051,13 +7021,13 @@
       <c r="M122" s="87"/>
     </row>
     <row r="123" spans="1:13" ht="38.25">
-      <c r="A123" s="294"/>
-      <c r="B123" s="297"/>
-      <c r="C123" s="300"/>
+      <c r="A123" s="205"/>
+      <c r="B123" s="208"/>
+      <c r="C123" s="203"/>
       <c r="D123" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="E123" s="230"/>
+      <c r="E123" s="219"/>
       <c r="F123" s="74">
         <v>0.3</v>
       </c>
@@ -7071,10 +7041,10 @@
       <c r="L123" s="5"/>
       <c r="M123" s="87"/>
     </row>
-    <row r="124" spans="1:13" ht="38.25">
-      <c r="A124" s="294"/>
-      <c r="B124" s="297"/>
-      <c r="C124" s="304" t="s">
+    <row r="124" spans="1:13" ht="39.4">
+      <c r="A124" s="205"/>
+      <c r="B124" s="208"/>
+      <c r="C124" s="209" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="124" t="s">
@@ -7098,34 +7068,34 @@
       <c r="M124" s="135"/>
     </row>
     <row r="125" spans="1:13" ht="38.25">
-      <c r="A125" s="294"/>
-      <c r="B125" s="297"/>
-      <c r="C125" s="305"/>
+      <c r="A125" s="205"/>
+      <c r="B125" s="208"/>
+      <c r="C125" s="210"/>
       <c r="D125" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="E125" s="228"/>
+      <c r="E125" s="217"/>
       <c r="F125" s="74">
         <v>1</v>
       </c>
-      <c r="G125" s="240" t="s">
+      <c r="G125" s="242" t="s">
         <v>365</v>
       </c>
-      <c r="H125" s="291"/>
-      <c r="I125" s="292"/>
+      <c r="H125" s="243"/>
+      <c r="I125" s="244"/>
       <c r="J125" s="80"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="87"/>
     </row>
     <row r="126" spans="1:13" ht="25.5">
-      <c r="A126" s="294"/>
-      <c r="B126" s="297"/>
-      <c r="C126" s="305"/>
+      <c r="A126" s="205"/>
+      <c r="B126" s="208"/>
+      <c r="C126" s="210"/>
       <c r="D126" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="E126" s="229"/>
+      <c r="E126" s="218"/>
       <c r="F126" s="122">
         <v>0.57999999999999996</v>
       </c>
@@ -7140,13 +7110,13 @@
       <c r="M126" s="3"/>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="294"/>
-      <c r="B127" s="297"/>
-      <c r="C127" s="305"/>
+      <c r="A127" s="205"/>
+      <c r="B127" s="208"/>
+      <c r="C127" s="210"/>
       <c r="D127" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="E127" s="229"/>
+      <c r="E127" s="218"/>
       <c r="F127" s="122">
         <v>0.57999999999999996</v>
       </c>
@@ -7161,13 +7131,13 @@
       <c r="M127" s="3"/>
     </row>
     <row r="128" spans="1:13" ht="38.25">
-      <c r="A128" s="294"/>
-      <c r="B128" s="297"/>
-      <c r="C128" s="306"/>
+      <c r="A128" s="205"/>
+      <c r="B128" s="208"/>
+      <c r="C128" s="211"/>
       <c r="D128" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="E128" s="230"/>
+      <c r="E128" s="219"/>
       <c r="F128" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -7181,10 +7151,10 @@
       <c r="L128" s="5"/>
       <c r="M128" s="87"/>
     </row>
-    <row r="129" spans="1:13" ht="15.75">
-      <c r="A129" s="294"/>
-      <c r="B129" s="297"/>
-      <c r="C129" s="304" t="s">
+    <row r="129" spans="1:13" ht="15">
+      <c r="A129" s="205"/>
+      <c r="B129" s="208"/>
+      <c r="C129" s="209" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="136" t="s">
@@ -7208,34 +7178,34 @@
       <c r="M129" s="135"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A130" s="294"/>
-      <c r="B130" s="297"/>
-      <c r="C130" s="333"/>
+      <c r="A130" s="205"/>
+      <c r="B130" s="208"/>
+      <c r="C130" s="225"/>
       <c r="D130" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="E130" s="216"/>
+      <c r="E130" s="299"/>
       <c r="F130" s="122">
         <v>1</v>
       </c>
-      <c r="G130" s="270" t="s">
+      <c r="G130" s="269" t="s">
         <v>361</v>
       </c>
-      <c r="H130" s="271"/>
-      <c r="I130" s="272"/>
+      <c r="H130" s="270"/>
+      <c r="I130" s="271"/>
       <c r="J130" s="81"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="87"/>
     </row>
     <row r="131" spans="1:13">
-      <c r="A131" s="294"/>
-      <c r="B131" s="297"/>
-      <c r="C131" s="333"/>
+      <c r="A131" s="205"/>
+      <c r="B131" s="208"/>
+      <c r="C131" s="225"/>
       <c r="D131" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="E131" s="217"/>
+      <c r="E131" s="300"/>
       <c r="F131" s="74">
         <v>0.5</v>
       </c>
@@ -7250,28 +7220,28 @@
       <c r="M131" s="87"/>
     </row>
     <row r="132" spans="1:13">
-      <c r="A132" s="294"/>
-      <c r="B132" s="297"/>
-      <c r="C132" s="333"/>
+      <c r="A132" s="205"/>
+      <c r="B132" s="208"/>
+      <c r="C132" s="225"/>
       <c r="D132" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="E132" s="218"/>
+      <c r="E132" s="301"/>
       <c r="F132" s="165"/>
-      <c r="G132" s="220" t="s">
+      <c r="G132" s="228" t="s">
         <v>283</v>
       </c>
-      <c r="H132" s="220"/>
-      <c r="I132" s="221"/>
+      <c r="H132" s="228"/>
+      <c r="I132" s="229"/>
       <c r="J132" s="81"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="87"/>
     </row>
-    <row r="133" spans="1:13" ht="25.5">
-      <c r="A133" s="294"/>
-      <c r="B133" s="297"/>
-      <c r="C133" s="299" t="s">
+    <row r="133" spans="1:13" ht="26.25">
+      <c r="A133" s="205"/>
+      <c r="B133" s="208"/>
+      <c r="C133" s="202" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="124" t="s">
@@ -7295,13 +7265,13 @@
       <c r="M133" s="135"/>
     </row>
     <row r="134" spans="1:13" ht="25.5">
-      <c r="A134" s="294"/>
-      <c r="B134" s="297"/>
-      <c r="C134" s="300"/>
+      <c r="A134" s="205"/>
+      <c r="B134" s="208"/>
+      <c r="C134" s="203"/>
       <c r="D134" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="E134" s="216"/>
+      <c r="E134" s="299"/>
       <c r="F134" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -7316,13 +7286,13 @@
       <c r="M134" s="87"/>
     </row>
     <row r="135" spans="1:13" ht="25.5">
-      <c r="A135" s="294"/>
-      <c r="B135" s="297"/>
-      <c r="C135" s="300"/>
+      <c r="A135" s="205"/>
+      <c r="B135" s="208"/>
+      <c r="C135" s="203"/>
       <c r="D135" s="112" t="s">
         <v>360</v>
       </c>
-      <c r="E135" s="217"/>
+      <c r="E135" s="300"/>
       <c r="F135" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -7337,13 +7307,13 @@
       <c r="M135" s="87"/>
     </row>
     <row r="136" spans="1:13" ht="25.5">
-      <c r="A136" s="294"/>
-      <c r="B136" s="297"/>
-      <c r="C136" s="300"/>
+      <c r="A136" s="205"/>
+      <c r="B136" s="208"/>
+      <c r="C136" s="203"/>
       <c r="D136" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="E136" s="218"/>
+      <c r="E136" s="301"/>
       <c r="F136" s="73">
         <v>0.57999999999999996</v>
       </c>
@@ -7357,10 +7327,10 @@
       <c r="L136" s="5"/>
       <c r="M136" s="87"/>
     </row>
-    <row r="137" spans="1:13" ht="38.25">
-      <c r="A137" s="294"/>
-      <c r="B137" s="297"/>
-      <c r="C137" s="301" t="s">
+    <row r="137" spans="1:13" ht="26.25">
+      <c r="A137" s="205"/>
+      <c r="B137" s="208"/>
+      <c r="C137" s="214" t="s">
         <v>34</v>
       </c>
       <c r="D137" s="127" t="s">
@@ -7384,13 +7354,13 @@
       <c r="M137" s="135"/>
     </row>
     <row r="138" spans="1:13" ht="25.5">
-      <c r="A138" s="294"/>
-      <c r="B138" s="297"/>
-      <c r="C138" s="302"/>
+      <c r="A138" s="205"/>
+      <c r="B138" s="208"/>
+      <c r="C138" s="215"/>
       <c r="D138" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="E138" s="216"/>
+      <c r="E138" s="299"/>
       <c r="F138" s="122">
         <v>0.75</v>
       </c>
@@ -7405,13 +7375,13 @@
       <c r="M138" s="87"/>
     </row>
     <row r="139" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A139" s="294"/>
-      <c r="B139" s="297"/>
-      <c r="C139" s="302"/>
+      <c r="A139" s="205"/>
+      <c r="B139" s="208"/>
+      <c r="C139" s="215"/>
       <c r="D139" s="107" t="s">
         <v>347</v>
       </c>
-      <c r="E139" s="217"/>
+      <c r="E139" s="300"/>
       <c r="F139" s="122">
         <v>0.45</v>
       </c>
@@ -7426,13 +7396,13 @@
       <c r="M139" s="87"/>
     </row>
     <row r="140" spans="1:13" ht="25.5">
-      <c r="A140" s="294"/>
-      <c r="B140" s="297"/>
-      <c r="C140" s="302"/>
+      <c r="A140" s="205"/>
+      <c r="B140" s="208"/>
+      <c r="C140" s="215"/>
       <c r="D140" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="E140" s="217"/>
+      <c r="E140" s="300"/>
       <c r="F140" s="73">
         <v>0.35</v>
       </c>
@@ -7447,32 +7417,32 @@
       <c r="M140" s="87"/>
     </row>
     <row r="141" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A141" s="294"/>
-      <c r="B141" s="297"/>
-      <c r="C141" s="303"/>
+      <c r="A141" s="205"/>
+      <c r="B141" s="208"/>
+      <c r="C141" s="216"/>
       <c r="D141" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="E141" s="218"/>
+      <c r="E141" s="301"/>
       <c r="F141" s="164"/>
-      <c r="G141" s="275" t="s">
+      <c r="G141" s="274" t="s">
         <v>282</v>
       </c>
-      <c r="H141" s="275"/>
-      <c r="I141" s="276"/>
+      <c r="H141" s="274"/>
+      <c r="I141" s="275"/>
       <c r="J141" s="82"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="87"/>
     </row>
-    <row r="142" spans="1:13" ht="51">
-      <c r="A142" s="334" t="s">
+    <row r="142" spans="1:13" ht="52.5">
+      <c r="A142" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="311" t="s">
+      <c r="B142" s="198" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="307" t="s">
+      <c r="C142" s="200" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="124" t="s">
@@ -7494,87 +7464,87 @@
       <c r="M142" s="135"/>
     </row>
     <row r="143" spans="1:13" ht="25.5">
-      <c r="A143" s="334"/>
-      <c r="B143" s="312"/>
-      <c r="C143" s="308"/>
+      <c r="A143" s="226"/>
+      <c r="B143" s="248"/>
+      <c r="C143" s="201"/>
       <c r="D143" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="E143" s="369"/>
+      <c r="E143" s="302"/>
       <c r="F143" s="73">
         <v>0.5</v>
       </c>
-      <c r="G143" s="269" t="s">
+      <c r="G143" s="268" t="s">
         <v>364</v>
       </c>
-      <c r="H143" s="277"/>
-      <c r="I143" s="278"/>
+      <c r="H143" s="276"/>
+      <c r="I143" s="277"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="87"/>
     </row>
     <row r="144" spans="1:13" ht="38.25">
-      <c r="A144" s="334"/>
-      <c r="B144" s="312"/>
-      <c r="C144" s="308"/>
+      <c r="A144" s="226"/>
+      <c r="B144" s="248"/>
+      <c r="C144" s="201"/>
       <c r="D144" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="370"/>
+      <c r="E144" s="303"/>
       <c r="F144" s="73">
         <v>0.5</v>
       </c>
-      <c r="G144" s="279"/>
-      <c r="H144" s="280"/>
-      <c r="I144" s="281"/>
+      <c r="G144" s="278"/>
+      <c r="H144" s="279"/>
+      <c r="I144" s="280"/>
       <c r="J144" s="82"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="87"/>
     </row>
     <row r="145" spans="1:13" ht="38.25">
-      <c r="A145" s="334"/>
-      <c r="B145" s="312"/>
-      <c r="C145" s="308"/>
+      <c r="A145" s="226"/>
+      <c r="B145" s="248"/>
+      <c r="C145" s="201"/>
       <c r="D145" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E145" s="370"/>
+      <c r="E145" s="303"/>
       <c r="F145" s="73">
         <v>0.5</v>
       </c>
-      <c r="G145" s="279"/>
-      <c r="H145" s="280"/>
-      <c r="I145" s="281"/>
+      <c r="G145" s="278"/>
+      <c r="H145" s="279"/>
+      <c r="I145" s="280"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
       <c r="M145" s="87"/>
     </row>
     <row r="146" spans="1:13" ht="25.5">
-      <c r="A146" s="334"/>
-      <c r="B146" s="312"/>
-      <c r="C146" s="308"/>
+      <c r="A146" s="226"/>
+      <c r="B146" s="248"/>
+      <c r="C146" s="201"/>
       <c r="D146" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="371"/>
+      <c r="E146" s="304"/>
       <c r="F146" s="73">
         <v>0.5</v>
       </c>
-      <c r="G146" s="282"/>
-      <c r="H146" s="283"/>
-      <c r="I146" s="284"/>
+      <c r="G146" s="281"/>
+      <c r="H146" s="282"/>
+      <c r="I146" s="283"/>
       <c r="J146" s="82"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="87"/>
     </row>
-    <row r="147" spans="1:13" ht="38.25">
-      <c r="A147" s="334"/>
-      <c r="B147" s="312"/>
-      <c r="C147" s="307" t="s">
+    <row r="147" spans="1:13" ht="39.4">
+      <c r="A147" s="226"/>
+      <c r="B147" s="248"/>
+      <c r="C147" s="200" t="s">
         <v>37</v>
       </c>
       <c r="D147" s="124" t="s">
@@ -7597,14 +7567,14 @@
       <c r="L147" s="134"/>
       <c r="M147" s="135"/>
     </row>
-    <row r="148" spans="1:13" ht="48">
-      <c r="A148" s="334"/>
-      <c r="B148" s="312"/>
-      <c r="C148" s="308"/>
+    <row r="148" spans="1:13" ht="38.25">
+      <c r="A148" s="226"/>
+      <c r="B148" s="248"/>
+      <c r="C148" s="201"/>
       <c r="D148" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="E148" s="348"/>
+      <c r="E148" s="356"/>
       <c r="F148" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7615,7 +7585,7 @@
         <v>0.09</v>
       </c>
       <c r="I148" s="172" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J148" s="82"/>
       <c r="K148" s="5"/>
@@ -7623,13 +7593,13 @@
       <c r="M148" s="87"/>
     </row>
     <row r="149" spans="1:13" ht="45" customHeight="1">
-      <c r="A149" s="334"/>
-      <c r="B149" s="312"/>
-      <c r="C149" s="308"/>
+      <c r="A149" s="226"/>
+      <c r="B149" s="248"/>
+      <c r="C149" s="201"/>
       <c r="D149" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="E149" s="349"/>
+      <c r="E149" s="357"/>
       <c r="F149" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7640,21 +7610,21 @@
         <v>0.09</v>
       </c>
       <c r="I149" s="172" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J149" s="82"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="87"/>
     </row>
-    <row r="150" spans="1:13" ht="72">
-      <c r="A150" s="334"/>
-      <c r="B150" s="312"/>
-      <c r="C150" s="308"/>
+    <row r="150" spans="1:13" ht="69.75">
+      <c r="A150" s="226"/>
+      <c r="B150" s="248"/>
+      <c r="C150" s="201"/>
       <c r="D150" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="350"/>
+      <c r="E150" s="358"/>
       <c r="F150" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7665,17 +7635,17 @@
         <v>0.09</v>
       </c>
       <c r="I150" s="355" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="1:13" ht="38.25">
-      <c r="A151" s="334"/>
-      <c r="B151" s="312"/>
-      <c r="C151" s="307" t="s">
+    <row r="151" spans="1:13" ht="39.4">
+      <c r="A151" s="226"/>
+      <c r="B151" s="248"/>
+      <c r="C151" s="200" t="s">
         <v>38</v>
       </c>
       <c r="D151" s="125" t="s">
@@ -7699,13 +7669,13 @@
       <c r="M151" s="135"/>
     </row>
     <row r="152" spans="1:13" ht="38.25">
-      <c r="A152" s="334"/>
-      <c r="B152" s="312"/>
-      <c r="C152" s="308"/>
+      <c r="A152" s="226"/>
+      <c r="B152" s="248"/>
+      <c r="C152" s="201"/>
       <c r="D152" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="E152" s="348"/>
+      <c r="E152" s="356"/>
       <c r="F152" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7715,8 +7685,8 @@
       <c r="H152" s="74">
         <v>0.09</v>
       </c>
-      <c r="I152" s="356" t="s">
-        <v>380</v>
+      <c r="I152" s="359" t="s">
+        <v>378</v>
       </c>
       <c r="J152" s="82"/>
       <c r="K152" s="5"/>
@@ -7724,13 +7694,13 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="1:13" ht="38.25">
-      <c r="A153" s="334"/>
-      <c r="B153" s="312"/>
-      <c r="C153" s="308"/>
+      <c r="A153" s="226"/>
+      <c r="B153" s="248"/>
+      <c r="C153" s="201"/>
       <c r="D153" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="E153" s="349"/>
+      <c r="E153" s="357"/>
       <c r="F153" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7740,22 +7710,22 @@
       <c r="H153" s="74">
         <v>0.09</v>
       </c>
-      <c r="I153" s="357" t="s">
-        <v>381</v>
+      <c r="I153" s="360" t="s">
+        <v>379</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="1:13" ht="48">
-      <c r="A154" s="334"/>
-      <c r="B154" s="312"/>
-      <c r="C154" s="308"/>
+    <row r="154" spans="1:13" ht="38.25">
+      <c r="A154" s="226"/>
+      <c r="B154" s="248"/>
+      <c r="C154" s="201"/>
       <c r="D154" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="E154" s="350"/>
+      <c r="E154" s="358"/>
       <c r="F154" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7765,18 +7735,18 @@
       <c r="H154" s="74">
         <v>0.09</v>
       </c>
-      <c r="I154" s="357" t="s">
-        <v>382</v>
+      <c r="I154" s="360" t="s">
+        <v>380</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="3"/>
     </row>
-    <row r="155" spans="1:13" ht="51">
-      <c r="A155" s="334"/>
-      <c r="B155" s="312"/>
-      <c r="C155" s="307" t="s">
+    <row r="155" spans="1:13" ht="52.5">
+      <c r="A155" s="226"/>
+      <c r="B155" s="248"/>
+      <c r="C155" s="200" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="125" t="s">
@@ -7800,72 +7770,78 @@
       <c r="M155" s="135"/>
     </row>
     <row r="156" spans="1:13" ht="51">
-      <c r="A156" s="334"/>
-      <c r="B156" s="312"/>
-      <c r="C156" s="308"/>
+      <c r="A156" s="226"/>
+      <c r="B156" s="248"/>
+      <c r="C156" s="201"/>
       <c r="D156" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="E156" s="228"/>
+      <c r="E156" s="217"/>
       <c r="F156" s="74">
         <v>0.57999999999999996</v>
       </c>
       <c r="G156" s="74">
         <v>0.09</v>
       </c>
-      <c r="H156" s="74"/>
-      <c r="I156" s="76"/>
+      <c r="H156" s="74">
+        <v>0.09</v>
+      </c>
+      <c r="I156" s="364"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="3"/>
     </row>
     <row r="157" spans="1:13" ht="38.25">
-      <c r="A157" s="334"/>
-      <c r="B157" s="312"/>
-      <c r="C157" s="308"/>
+      <c r="A157" s="226"/>
+      <c r="B157" s="248"/>
+      <c r="C157" s="201"/>
       <c r="D157" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="E157" s="229"/>
+      <c r="E157" s="218"/>
       <c r="F157" s="74">
         <v>0.57999999999999996</v>
       </c>
       <c r="G157" s="74">
         <v>0.09</v>
       </c>
-      <c r="H157" s="74"/>
-      <c r="I157" s="76"/>
+      <c r="H157" s="74">
+        <v>0.09</v>
+      </c>
+      <c r="I157" s="364"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
       <c r="M157" s="3"/>
     </row>
     <row r="158" spans="1:13" ht="51">
-      <c r="A158" s="334"/>
-      <c r="B158" s="312"/>
-      <c r="C158" s="308"/>
+      <c r="A158" s="226"/>
+      <c r="B158" s="248"/>
+      <c r="C158" s="201"/>
       <c r="D158" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="E158" s="230"/>
+      <c r="E158" s="219"/>
       <c r="F158" s="74">
         <v>0.57999999999999996</v>
       </c>
       <c r="G158" s="74">
         <v>0.09</v>
       </c>
-      <c r="H158" s="74"/>
-      <c r="I158" s="76"/>
+      <c r="H158" s="74">
+        <v>0.09</v>
+      </c>
+      <c r="I158" s="364"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
       <c r="M158" s="3"/>
     </row>
-    <row r="159" spans="1:13" ht="25.5">
-      <c r="A159" s="334"/>
-      <c r="B159" s="312"/>
-      <c r="C159" s="307" t="s">
+    <row r="159" spans="1:13" ht="26.25">
+      <c r="A159" s="226"/>
+      <c r="B159" s="248"/>
+      <c r="C159" s="200" t="s">
         <v>126</v>
       </c>
       <c r="D159" s="125" t="s">
@@ -7889,13 +7865,13 @@
       <c r="M159" s="135"/>
     </row>
     <row r="160" spans="1:13" ht="25.5">
-      <c r="A160" s="334"/>
-      <c r="B160" s="312"/>
-      <c r="C160" s="308"/>
-      <c r="D160" s="367" t="s">
+      <c r="A160" s="226"/>
+      <c r="B160" s="248"/>
+      <c r="C160" s="201"/>
+      <c r="D160" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="E160" s="352"/>
+      <c r="E160" s="356"/>
       <c r="F160" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7913,14 +7889,14 @@
       <c r="L160" s="5"/>
       <c r="M160" s="3"/>
     </row>
-    <row r="161" spans="1:18" ht="36">
-      <c r="A161" s="334"/>
-      <c r="B161" s="312"/>
-      <c r="C161" s="308"/>
-      <c r="D161" s="367" t="s">
+    <row r="161" spans="1:18" ht="25.5">
+      <c r="A161" s="226"/>
+      <c r="B161" s="248"/>
+      <c r="C161" s="201"/>
+      <c r="D161" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="E161" s="353"/>
+      <c r="E161" s="357"/>
       <c r="F161" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7938,14 +7914,14 @@
       <c r="L161" s="5"/>
       <c r="M161" s="3"/>
     </row>
-    <row r="162" spans="1:18" ht="36">
-      <c r="A162" s="334"/>
-      <c r="B162" s="312"/>
-      <c r="C162" s="308"/>
-      <c r="D162" s="367" t="s">
+    <row r="162" spans="1:18" ht="25.5">
+      <c r="A162" s="226"/>
+      <c r="B162" s="248"/>
+      <c r="C162" s="201"/>
+      <c r="D162" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="E162" s="354"/>
+      <c r="E162" s="358"/>
       <c r="F162" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -7963,10 +7939,10 @@
       <c r="L162" s="5"/>
       <c r="M162" s="3"/>
     </row>
-    <row r="163" spans="1:18" ht="25.5">
+    <row r="163" spans="1:18" ht="26.25">
       <c r="A163" s="69"/>
-      <c r="B163" s="312"/>
-      <c r="C163" s="319" t="s">
+      <c r="B163" s="248"/>
+      <c r="C163" s="255" t="s">
         <v>244</v>
       </c>
       <c r="D163" s="125" t="s">
@@ -7989,71 +7965,71 @@
     </row>
     <row r="164" spans="1:18" ht="38.25">
       <c r="A164" s="69"/>
-      <c r="B164" s="312"/>
-      <c r="C164" s="320"/>
+      <c r="B164" s="248"/>
+      <c r="C164" s="256"/>
       <c r="D164" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="E164" s="231"/>
+      <c r="E164" s="220"/>
       <c r="F164" s="121">
         <v>1</v>
       </c>
-      <c r="G164" s="201" t="s">
+      <c r="G164" s="287" t="s">
         <v>363</v>
       </c>
-      <c r="H164" s="202"/>
-      <c r="I164" s="203"/>
+      <c r="H164" s="288"/>
+      <c r="I164" s="289"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
       <c r="M164" s="3"/>
     </row>
-    <row r="165" spans="1:18" ht="38.25">
+    <row r="165" spans="1:18" ht="25.5">
       <c r="A165" s="69"/>
-      <c r="B165" s="312"/>
-      <c r="C165" s="320"/>
+      <c r="B165" s="248"/>
+      <c r="C165" s="256"/>
       <c r="D165" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="E165" s="232"/>
+      <c r="E165" s="221"/>
       <c r="F165" s="121">
         <v>1</v>
       </c>
-      <c r="G165" s="204"/>
-      <c r="H165" s="205"/>
-      <c r="I165" s="206"/>
+      <c r="G165" s="290"/>
+      <c r="H165" s="291"/>
+      <c r="I165" s="292"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
       <c r="M165" s="3"/>
     </row>
-    <row r="166" spans="1:18" ht="25.5">
+    <row r="166" spans="1:18">
       <c r="A166" s="69"/>
-      <c r="B166" s="312"/>
-      <c r="C166" s="320"/>
+      <c r="B166" s="248"/>
+      <c r="C166" s="256"/>
       <c r="D166" s="105" t="s">
         <v>248</v>
       </c>
-      <c r="E166" s="233"/>
+      <c r="E166" s="222"/>
       <c r="F166" s="121">
         <v>1</v>
       </c>
-      <c r="G166" s="207"/>
-      <c r="H166" s="208"/>
-      <c r="I166" s="209"/>
+      <c r="G166" s="293"/>
+      <c r="H166" s="294"/>
+      <c r="I166" s="295"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="3"/>
     </row>
     <row r="167" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A167" s="293" t="s">
+      <c r="A167" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="B167" s="332" t="s">
+      <c r="B167" s="224" t="s">
         <v>128</v>
       </c>
-      <c r="C167" s="307" t="s">
+      <c r="C167" s="200" t="s">
         <v>40</v>
       </c>
       <c r="D167" s="138" t="s">
@@ -8076,35 +8052,35 @@
       <c r="L167" s="134"/>
       <c r="M167" s="135"/>
     </row>
-    <row r="168" spans="1:18" ht="42.75">
-      <c r="A168" s="294"/>
-      <c r="B168" s="311"/>
-      <c r="C168" s="308"/>
+    <row r="168" spans="1:18" ht="40.5">
+      <c r="A168" s="205"/>
+      <c r="B168" s="198"/>
+      <c r="C168" s="201"/>
       <c r="D168" s="139" t="s">
         <v>337</v>
       </c>
-      <c r="E168" s="228"/>
+      <c r="E168" s="217"/>
       <c r="F168" s="73">
         <v>1</v>
       </c>
-      <c r="G168" s="188" t="s">
+      <c r="G168" s="259" t="s">
         <v>355</v>
       </c>
-      <c r="H168" s="189"/>
-      <c r="I168" s="190"/>
+      <c r="H168" s="260"/>
+      <c r="I168" s="261"/>
       <c r="J168" s="161"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="3"/>
     </row>
-    <row r="169" spans="1:18" ht="28.5">
-      <c r="A169" s="294"/>
-      <c r="B169" s="311"/>
-      <c r="C169" s="308"/>
+    <row r="169" spans="1:18">
+      <c r="A169" s="205"/>
+      <c r="B169" s="198"/>
+      <c r="C169" s="201"/>
       <c r="D169" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="E169" s="229"/>
+      <c r="E169" s="218"/>
       <c r="F169" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -8122,28 +8098,28 @@
       </c>
     </row>
     <row r="170" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A170" s="294"/>
-      <c r="B170" s="311"/>
-      <c r="C170" s="308"/>
+      <c r="A170" s="205"/>
+      <c r="B170" s="198"/>
+      <c r="C170" s="201"/>
       <c r="D170" s="146" t="s">
         <v>339</v>
       </c>
-      <c r="E170" s="230"/>
-      <c r="F170" s="234" t="s">
+      <c r="E170" s="219"/>
+      <c r="F170" s="339" t="s">
         <v>283</v>
       </c>
-      <c r="G170" s="235"/>
-      <c r="H170" s="235"/>
-      <c r="I170" s="236"/>
+      <c r="G170" s="340"/>
+      <c r="H170" s="340"/>
+      <c r="I170" s="341"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:18" ht="38.25">
-      <c r="A171" s="294"/>
-      <c r="B171" s="311"/>
-      <c r="C171" s="301" t="s">
+    <row r="171" spans="1:18" ht="26.25">
+      <c r="A171" s="205"/>
+      <c r="B171" s="198"/>
+      <c r="C171" s="214" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="125" t="s">
@@ -8167,56 +8143,56 @@
       <c r="M171" s="135"/>
     </row>
     <row r="172" spans="1:18" ht="25.5">
-      <c r="A172" s="294"/>
-      <c r="B172" s="311"/>
-      <c r="C172" s="302"/>
+      <c r="A172" s="205"/>
+      <c r="B172" s="198"/>
+      <c r="C172" s="215"/>
       <c r="D172" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="E172" s="228"/>
+      <c r="E172" s="217"/>
       <c r="F172" s="74">
         <v>1</v>
       </c>
-      <c r="G172" s="240" t="s">
+      <c r="G172" s="242" t="s">
         <v>362</v>
       </c>
-      <c r="H172" s="241"/>
-      <c r="I172" s="242"/>
+      <c r="H172" s="257"/>
+      <c r="I172" s="258"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="3"/>
     </row>
     <row r="173" spans="1:18" ht="51">
-      <c r="A173" s="294"/>
-      <c r="B173" s="311"/>
-      <c r="C173" s="302"/>
+      <c r="A173" s="205"/>
+      <c r="B173" s="198"/>
+      <c r="C173" s="215"/>
       <c r="D173" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
       </c>
-      <c r="E173" s="229"/>
+      <c r="E173" s="218"/>
       <c r="F173" s="73">
         <v>1</v>
       </c>
-      <c r="G173" s="188" t="s">
+      <c r="G173" s="259" t="s">
         <v>361</v>
       </c>
-      <c r="H173" s="189"/>
-      <c r="I173" s="190"/>
+      <c r="H173" s="260"/>
+      <c r="I173" s="261"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="3"/>
     </row>
     <row r="174" spans="1:18">
-      <c r="A174" s="294"/>
-      <c r="B174" s="311"/>
-      <c r="C174" s="302"/>
+      <c r="A174" s="205"/>
+      <c r="B174" s="198"/>
+      <c r="C174" s="215"/>
       <c r="D174" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="E174" s="229"/>
+      <c r="E174" s="218"/>
       <c r="F174" s="122">
         <v>0.5</v>
       </c>
@@ -8231,28 +8207,28 @@
       <c r="M174" s="3"/>
     </row>
     <row r="175" spans="1:18" ht="38.25">
-      <c r="A175" s="294"/>
-      <c r="B175" s="311"/>
-      <c r="C175" s="303"/>
+      <c r="A175" s="205"/>
+      <c r="B175" s="198"/>
+      <c r="C175" s="216"/>
       <c r="D175" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="E175" s="230"/>
+      <c r="E175" s="219"/>
       <c r="F175" s="164"/>
-      <c r="G175" s="275" t="s">
+      <c r="G175" s="274" t="s">
         <v>284</v>
       </c>
-      <c r="H175" s="275"/>
-      <c r="I175" s="276"/>
+      <c r="H175" s="274"/>
+      <c r="I175" s="275"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
       <c r="M175" s="3"/>
     </row>
     <row r="176" spans="1:18" ht="42" customHeight="1">
-      <c r="A176" s="294"/>
-      <c r="B176" s="311"/>
-      <c r="C176" s="307" t="s">
+      <c r="A176" s="205"/>
+      <c r="B176" s="198"/>
+      <c r="C176" s="200" t="s">
         <v>42</v>
       </c>
       <c r="D176" s="125" t="s">
@@ -8276,13 +8252,13 @@
       <c r="M176" s="135"/>
     </row>
     <row r="177" spans="1:13" ht="25.5">
-      <c r="A177" s="294"/>
-      <c r="B177" s="311"/>
-      <c r="C177" s="308"/>
+      <c r="A177" s="205"/>
+      <c r="B177" s="198"/>
+      <c r="C177" s="201"/>
       <c r="D177" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="E177" s="237"/>
+      <c r="E177" s="342"/>
       <c r="F177" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -8297,13 +8273,13 @@
       <c r="M177" s="3"/>
     </row>
     <row r="178" spans="1:13" ht="38.25">
-      <c r="A178" s="294"/>
-      <c r="B178" s="311"/>
-      <c r="C178" s="308"/>
+      <c r="A178" s="205"/>
+      <c r="B178" s="198"/>
+      <c r="C178" s="201"/>
       <c r="D178" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="E178" s="238"/>
+      <c r="E178" s="343"/>
       <c r="F178" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -8318,28 +8294,28 @@
       <c r="M178" s="3"/>
     </row>
     <row r="179" spans="1:13" ht="38.25">
-      <c r="A179" s="294"/>
-      <c r="B179" s="311"/>
-      <c r="C179" s="308"/>
+      <c r="A179" s="205"/>
+      <c r="B179" s="198"/>
+      <c r="C179" s="201"/>
       <c r="D179" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="E179" s="239"/>
-      <c r="F179" s="219" t="s">
+      <c r="E179" s="344"/>
+      <c r="F179" s="326" t="s">
         <v>282</v>
       </c>
-      <c r="G179" s="220"/>
-      <c r="H179" s="220"/>
-      <c r="I179" s="221"/>
+      <c r="G179" s="228"/>
+      <c r="H179" s="228"/>
+      <c r="I179" s="229"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="38.25">
-      <c r="A180" s="294"/>
-      <c r="B180" s="311"/>
-      <c r="C180" s="299" t="s">
+    <row r="180" spans="1:13" ht="39.4">
+      <c r="A180" s="205"/>
+      <c r="B180" s="198"/>
+      <c r="C180" s="202" t="s">
         <v>43</v>
       </c>
       <c r="D180" s="125" t="s">
@@ -8363,34 +8339,34 @@
       <c r="M180" s="135"/>
     </row>
     <row r="181" spans="1:13" ht="51">
-      <c r="A181" s="294"/>
-      <c r="B181" s="311"/>
-      <c r="C181" s="300"/>
+      <c r="A181" s="205"/>
+      <c r="B181" s="198"/>
+      <c r="C181" s="203"/>
       <c r="D181" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="E181" s="222"/>
+      <c r="E181" s="330"/>
       <c r="F181" s="74">
         <v>1</v>
       </c>
-      <c r="G181" s="240" t="s">
+      <c r="G181" s="242" t="s">
         <v>355</v>
       </c>
-      <c r="H181" s="241"/>
-      <c r="I181" s="242"/>
+      <c r="H181" s="257"/>
+      <c r="I181" s="258"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
       <c r="M181" s="3"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="294"/>
-      <c r="B182" s="311"/>
-      <c r="C182" s="300"/>
+      <c r="A182" s="205"/>
+      <c r="B182" s="198"/>
+      <c r="C182" s="203"/>
       <c r="D182" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="E182" s="223"/>
+      <c r="E182" s="331"/>
       <c r="F182" s="160">
         <v>0.48</v>
       </c>
@@ -8405,32 +8381,32 @@
       <c r="M182" s="3"/>
     </row>
     <row r="183" spans="1:13" ht="25.5">
-      <c r="A183" s="295"/>
-      <c r="B183" s="311"/>
-      <c r="C183" s="300"/>
+      <c r="A183" s="212"/>
+      <c r="B183" s="198"/>
+      <c r="C183" s="203"/>
       <c r="D183" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="E183" s="224"/>
+      <c r="E183" s="332"/>
       <c r="F183" s="169"/>
-      <c r="G183" s="243" t="s">
+      <c r="G183" s="311" t="s">
         <v>282</v>
       </c>
-      <c r="H183" s="243"/>
-      <c r="I183" s="244"/>
+      <c r="H183" s="311"/>
+      <c r="I183" s="312"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
       <c r="M183" s="3"/>
     </row>
-    <row r="184" spans="1:13" ht="25.5">
-      <c r="A184" s="293" t="s">
+    <row r="184" spans="1:13" ht="26.25">
+      <c r="A184" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="296" t="s">
+      <c r="B184" s="207" t="s">
         <v>127</v>
       </c>
-      <c r="C184" s="299" t="s">
+      <c r="C184" s="202" t="s">
         <v>44</v>
       </c>
       <c r="D184" s="125" t="s">
@@ -8454,13 +8430,13 @@
       <c r="M184" s="135"/>
     </row>
     <row r="185" spans="1:13">
-      <c r="A185" s="294"/>
-      <c r="B185" s="297"/>
-      <c r="C185" s="300"/>
+      <c r="A185" s="205"/>
+      <c r="B185" s="208"/>
+      <c r="C185" s="203"/>
       <c r="D185" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="E185" s="216"/>
+      <c r="E185" s="299"/>
       <c r="F185" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -8475,13 +8451,13 @@
       <c r="M185" s="3"/>
     </row>
     <row r="186" spans="1:13" ht="25.5">
-      <c r="A186" s="294"/>
-      <c r="B186" s="297"/>
-      <c r="C186" s="300"/>
+      <c r="A186" s="205"/>
+      <c r="B186" s="208"/>
+      <c r="C186" s="203"/>
       <c r="D186" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="E186" s="217"/>
+      <c r="E186" s="300"/>
       <c r="F186" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -8496,28 +8472,28 @@
       <c r="M186" s="3"/>
     </row>
     <row r="187" spans="1:13" ht="25.5">
-      <c r="A187" s="294"/>
-      <c r="B187" s="297"/>
-      <c r="C187" s="300"/>
+      <c r="A187" s="205"/>
+      <c r="B187" s="208"/>
+      <c r="C187" s="203"/>
       <c r="D187" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="E187" s="218"/>
-      <c r="F187" s="219" t="s">
+      <c r="E187" s="301"/>
+      <c r="F187" s="326" t="s">
         <v>282</v>
       </c>
-      <c r="G187" s="220"/>
-      <c r="H187" s="220"/>
-      <c r="I187" s="221"/>
+      <c r="G187" s="228"/>
+      <c r="H187" s="228"/>
+      <c r="I187" s="229"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
       <c r="M187" s="3"/>
     </row>
-    <row r="188" spans="1:13" ht="38.25">
-      <c r="A188" s="294"/>
-      <c r="B188" s="297"/>
-      <c r="C188" s="301" t="s">
+    <row r="188" spans="1:13" ht="26.25">
+      <c r="A188" s="205"/>
+      <c r="B188" s="208"/>
+      <c r="C188" s="214" t="s">
         <v>45</v>
       </c>
       <c r="D188" s="129" t="s">
@@ -8541,76 +8517,76 @@
       <c r="M188" s="135"/>
     </row>
     <row r="189" spans="1:13" ht="25.5">
-      <c r="A189" s="294"/>
-      <c r="B189" s="297"/>
-      <c r="C189" s="302"/>
+      <c r="A189" s="205"/>
+      <c r="B189" s="208"/>
+      <c r="C189" s="215"/>
       <c r="D189" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="E189" s="364"/>
+      <c r="E189" s="327"/>
       <c r="F189" s="74">
         <v>1</v>
       </c>
-      <c r="G189" s="240" t="s">
+      <c r="G189" s="242" t="s">
         <v>365</v>
       </c>
-      <c r="H189" s="291"/>
-      <c r="I189" s="292"/>
+      <c r="H189" s="243"/>
+      <c r="I189" s="244"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
       <c r="M189" s="3"/>
     </row>
     <row r="190" spans="1:13" ht="25.5">
-      <c r="A190" s="294"/>
-      <c r="B190" s="297"/>
-      <c r="C190" s="302"/>
+      <c r="A190" s="205"/>
+      <c r="B190" s="208"/>
+      <c r="C190" s="215"/>
       <c r="D190" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="E190" s="365"/>
+      <c r="E190" s="328"/>
       <c r="F190" s="74">
         <v>1</v>
       </c>
-      <c r="G190" s="240" t="s">
+      <c r="G190" s="242" t="s">
         <v>355</v>
       </c>
-      <c r="H190" s="241"/>
-      <c r="I190" s="242"/>
+      <c r="H190" s="257"/>
+      <c r="I190" s="258"/>
       <c r="J190" s="77"/>
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
       <c r="M190" s="3"/>
     </row>
     <row r="191" spans="1:13" ht="25.5">
-      <c r="A191" s="294"/>
-      <c r="B191" s="297"/>
-      <c r="C191" s="302"/>
+      <c r="A191" s="205"/>
+      <c r="B191" s="208"/>
+      <c r="C191" s="215"/>
       <c r="D191" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="E191" s="365"/>
+      <c r="E191" s="328"/>
       <c r="F191" s="74">
         <v>1</v>
       </c>
-      <c r="G191" s="240" t="s">
+      <c r="G191" s="242" t="s">
         <v>363</v>
       </c>
-      <c r="H191" s="241"/>
-      <c r="I191" s="242"/>
+      <c r="H191" s="257"/>
+      <c r="I191" s="258"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
       <c r="M191" s="3"/>
     </row>
-    <row r="192" spans="1:13" ht="48">
-      <c r="A192" s="294"/>
-      <c r="B192" s="297"/>
-      <c r="C192" s="303"/>
-      <c r="D192" s="372" t="s">
+    <row r="192" spans="1:13" ht="34.9">
+      <c r="A192" s="205"/>
+      <c r="B192" s="208"/>
+      <c r="C192" s="216"/>
+      <c r="D192" s="362" t="s">
         <v>268</v>
       </c>
-      <c r="E192" s="366"/>
+      <c r="E192" s="329"/>
       <c r="F192" s="74">
         <v>0.44</v>
       </c>
@@ -8620,7 +8596,7 @@
       <c r="H192" s="74">
         <v>0.11</v>
       </c>
-      <c r="I192" s="176" t="s">
+      <c r="I192" s="361" t="s">
         <v>375</v>
       </c>
       <c r="J192" s="5"/>
@@ -8628,10 +8604,10 @@
       <c r="L192" s="5"/>
       <c r="M192" s="3"/>
     </row>
-    <row r="193" spans="1:16" ht="25.5">
-      <c r="A193" s="294"/>
-      <c r="B193" s="297"/>
-      <c r="C193" s="299" t="s">
+    <row r="193" spans="1:16" ht="26.25">
+      <c r="A193" s="205"/>
+      <c r="B193" s="208"/>
+      <c r="C193" s="202" t="s">
         <v>46</v>
       </c>
       <c r="D193" s="129" t="s">
@@ -8655,34 +8631,34 @@
       <c r="M193" s="135"/>
     </row>
     <row r="194" spans="1:16" ht="25.5">
-      <c r="A194" s="294"/>
-      <c r="B194" s="297"/>
-      <c r="C194" s="300"/>
+      <c r="A194" s="205"/>
+      <c r="B194" s="208"/>
+      <c r="C194" s="203"/>
       <c r="D194" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="E194" s="222"/>
+      <c r="E194" s="330"/>
       <c r="F194" s="74">
         <v>1</v>
       </c>
-      <c r="G194" s="240" t="s">
+      <c r="G194" s="242" t="s">
         <v>352</v>
       </c>
-      <c r="H194" s="241"/>
-      <c r="I194" s="242"/>
+      <c r="H194" s="257"/>
+      <c r="I194" s="258"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
       <c r="M194" s="3"/>
     </row>
     <row r="195" spans="1:16" ht="25.5">
-      <c r="A195" s="294"/>
-      <c r="B195" s="297"/>
-      <c r="C195" s="300"/>
+      <c r="A195" s="205"/>
+      <c r="B195" s="208"/>
+      <c r="C195" s="203"/>
       <c r="D195" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="E195" s="223"/>
+      <c r="E195" s="331"/>
       <c r="F195" s="122">
         <v>0.67</v>
       </c>
@@ -8697,28 +8673,28 @@
       <c r="M195" s="3"/>
     </row>
     <row r="196" spans="1:16" ht="25.5">
-      <c r="A196" s="294"/>
-      <c r="B196" s="297"/>
-      <c r="C196" s="300"/>
+      <c r="A196" s="205"/>
+      <c r="B196" s="208"/>
+      <c r="C196" s="203"/>
       <c r="D196" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="E196" s="224"/>
+      <c r="E196" s="332"/>
       <c r="F196" s="169"/>
-      <c r="G196" s="243" t="s">
+      <c r="G196" s="311" t="s">
         <v>283</v>
       </c>
-      <c r="H196" s="243"/>
-      <c r="I196" s="244"/>
+      <c r="H196" s="311"/>
+      <c r="I196" s="312"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
       <c r="M196" s="3"/>
     </row>
-    <row r="197" spans="1:16" ht="25.5">
-      <c r="A197" s="294"/>
-      <c r="B197" s="297"/>
-      <c r="C197" s="304" t="s">
+    <row r="197" spans="1:16" ht="26.25">
+      <c r="A197" s="205"/>
+      <c r="B197" s="208"/>
+      <c r="C197" s="209" t="s">
         <v>47</v>
       </c>
       <c r="D197" s="125" t="s">
@@ -8742,34 +8718,34 @@
       <c r="M197" s="135"/>
     </row>
     <row r="198" spans="1:16" ht="38.25">
-      <c r="A198" s="294"/>
-      <c r="B198" s="297"/>
-      <c r="C198" s="305"/>
+      <c r="A198" s="205"/>
+      <c r="B198" s="208"/>
+      <c r="C198" s="210"/>
       <c r="D198" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="E198" s="361"/>
+      <c r="E198" s="330"/>
       <c r="F198" s="74">
         <v>1</v>
       </c>
-      <c r="G198" s="240" t="s">
+      <c r="G198" s="242" t="s">
         <v>362</v>
       </c>
-      <c r="H198" s="241"/>
-      <c r="I198" s="242"/>
+      <c r="H198" s="257"/>
+      <c r="I198" s="258"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
       <c r="M198" s="3"/>
     </row>
     <row r="199" spans="1:16" ht="25.5">
-      <c r="A199" s="294"/>
-      <c r="B199" s="297"/>
-      <c r="C199" s="305"/>
-      <c r="D199" s="372" t="s">
+      <c r="A199" s="205"/>
+      <c r="B199" s="208"/>
+      <c r="C199" s="210"/>
+      <c r="D199" s="362" t="s">
         <v>275</v>
       </c>
-      <c r="E199" s="362"/>
+      <c r="E199" s="331"/>
       <c r="F199" s="74">
         <v>0.57999999999999996</v>
       </c>
@@ -8779,7 +8755,7 @@
       <c r="H199" s="74">
         <v>0.09</v>
       </c>
-      <c r="I199" s="176" t="s">
+      <c r="I199" s="361" t="s">
         <v>376</v>
       </c>
       <c r="J199" s="5"/>
@@ -8788,13 +8764,13 @@
       <c r="M199" s="3"/>
     </row>
     <row r="200" spans="1:16" ht="51">
-      <c r="A200" s="294"/>
-      <c r="B200" s="297"/>
-      <c r="C200" s="305"/>
+      <c r="A200" s="205"/>
+      <c r="B200" s="208"/>
+      <c r="C200" s="210"/>
       <c r="D200" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="E200" s="362"/>
+      <c r="E200" s="331"/>
       <c r="F200" s="74">
         <v>0.6</v>
       </c>
@@ -8809,13 +8785,13 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:16" ht="38.25">
-      <c r="A201" s="294"/>
-      <c r="B201" s="297"/>
-      <c r="C201" s="306"/>
+      <c r="A201" s="205"/>
+      <c r="B201" s="208"/>
+      <c r="C201" s="211"/>
       <c r="D201" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="E201" s="363"/>
+      <c r="E201" s="332"/>
       <c r="F201" s="74">
         <v>0.44</v>
       </c>
@@ -8830,9 +8806,9 @@
       <c r="M201" s="3"/>
     </row>
     <row r="202" spans="1:16" ht="30" customHeight="1">
-      <c r="A202" s="294"/>
-      <c r="B202" s="297"/>
-      <c r="C202" s="307" t="s">
+      <c r="A202" s="205"/>
+      <c r="B202" s="208"/>
+      <c r="C202" s="200" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="123" t="s">
@@ -8856,55 +8832,55 @@
       <c r="M202" s="135"/>
     </row>
     <row r="203" spans="1:16" ht="51">
-      <c r="A203" s="294"/>
-      <c r="B203" s="297"/>
-      <c r="C203" s="308"/>
+      <c r="A203" s="205"/>
+      <c r="B203" s="208"/>
+      <c r="C203" s="201"/>
       <c r="D203" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="E203" s="225"/>
+      <c r="E203" s="333"/>
       <c r="F203" s="74">
         <v>1</v>
       </c>
-      <c r="G203" s="240" t="s">
+      <c r="G203" s="242" t="s">
         <v>349</v>
       </c>
-      <c r="H203" s="241"/>
-      <c r="I203" s="242"/>
+      <c r="H203" s="257"/>
+      <c r="I203" s="258"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
       <c r="M203" s="3"/>
     </row>
     <row r="204" spans="1:16" ht="51">
-      <c r="A204" s="294"/>
-      <c r="B204" s="297"/>
-      <c r="C204" s="308"/>
+      <c r="A204" s="205"/>
+      <c r="B204" s="208"/>
+      <c r="C204" s="201"/>
       <c r="D204" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="E204" s="226"/>
+      <c r="E204" s="334"/>
       <c r="F204" s="74">
         <v>1</v>
       </c>
-      <c r="G204" s="240" t="s">
+      <c r="G204" s="242" t="s">
         <v>354</v>
       </c>
-      <c r="H204" s="241"/>
-      <c r="I204" s="242"/>
+      <c r="H204" s="257"/>
+      <c r="I204" s="258"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
       <c r="M204" s="3"/>
     </row>
     <row r="205" spans="1:16" ht="51">
-      <c r="A205" s="295"/>
-      <c r="B205" s="298"/>
-      <c r="C205" s="308"/>
+      <c r="A205" s="212"/>
+      <c r="B205" s="245"/>
+      <c r="C205" s="201"/>
       <c r="D205" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="E205" s="227"/>
+      <c r="E205" s="335"/>
       <c r="F205" s="74">
         <v>0.44</v>
       </c>
@@ -8919,9 +8895,9 @@
       <c r="M205" s="3"/>
     </row>
     <row r="206" spans="1:16" ht="72.75" customHeight="1">
-      <c r="A206" s="289"/>
-      <c r="B206" s="289"/>
-      <c r="C206" s="288" t="s">
+      <c r="A206" s="240"/>
+      <c r="B206" s="240"/>
+      <c r="C206" s="239" t="s">
         <v>340</v>
       </c>
       <c r="D206" s="145" t="s">
@@ -8948,21 +8924,21 @@
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" ht="25.5">
-      <c r="A207" s="289"/>
-      <c r="B207" s="289"/>
-      <c r="C207" s="288"/>
+      <c r="A207" s="240"/>
+      <c r="B207" s="240"/>
+      <c r="C207" s="239"/>
       <c r="D207" s="166" t="s">
         <v>342</v>
       </c>
-      <c r="E207" s="358"/>
+      <c r="E207" s="336"/>
       <c r="F207" s="141">
         <v>1</v>
       </c>
-      <c r="G207" s="210" t="s">
+      <c r="G207" s="320" t="s">
         <v>370</v>
       </c>
-      <c r="H207" s="211"/>
-      <c r="I207" s="212"/>
+      <c r="H207" s="321"/>
+      <c r="I207" s="322"/>
       <c r="J207" s="86"/>
       <c r="K207" s="141"/>
       <c r="L207" s="141"/>
@@ -8972,32 +8948,32 @@
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16">
-      <c r="A208" s="289"/>
-      <c r="B208" s="289"/>
-      <c r="C208" s="288"/>
+      <c r="A208" s="240"/>
+      <c r="B208" s="240"/>
+      <c r="C208" s="239"/>
       <c r="D208" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="E208" s="359"/>
+      <c r="E208" s="337"/>
       <c r="F208" s="141">
         <v>1</v>
       </c>
-      <c r="G208" s="213"/>
-      <c r="H208" s="214"/>
-      <c r="I208" s="215"/>
+      <c r="G208" s="323"/>
+      <c r="H208" s="324"/>
+      <c r="I208" s="325"/>
       <c r="J208" s="180"/>
       <c r="K208" s="148"/>
       <c r="L208" s="148"/>
       <c r="M208" s="75"/>
     </row>
     <row r="209" spans="1:13" ht="25.5">
-      <c r="A209" s="289"/>
-      <c r="B209" s="289"/>
-      <c r="C209" s="288"/>
-      <c r="D209" s="368" t="s">
+      <c r="A209" s="240"/>
+      <c r="B209" s="240"/>
+      <c r="C209" s="239"/>
+      <c r="D209" s="363" t="s">
         <v>344</v>
       </c>
-      <c r="E209" s="360"/>
+      <c r="E209" s="338"/>
       <c r="F209" s="148">
         <v>0</v>
       </c>
@@ -9007,7 +8983,7 @@
       <c r="H209" s="187">
         <v>0.12</v>
       </c>
-      <c r="I209" s="351" t="s">
+      <c r="I209" s="188" t="s">
         <v>371</v>
       </c>
       <c r="J209" s="147"/>
@@ -9139,6 +9115,144 @@
     <protectedRange sqref="H115" name="Rango1_8_1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="162">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G69:I71"/>
+    <mergeCell ref="G73:I75"/>
+    <mergeCell ref="G207:I208"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="E189:E192"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="E198:E201"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="E172:E175"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="G198:I198"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="G196:I196"/>
+    <mergeCell ref="G183:I183"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="E143:E146"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="F42:I43"/>
+    <mergeCell ref="G104:I105"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="G181:I181"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G35:I38"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G88:I89"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G175:I175"/>
+    <mergeCell ref="G143:I146"/>
+    <mergeCell ref="G164:I166"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="G189:I189"/>
+    <mergeCell ref="A184:A205"/>
+    <mergeCell ref="B184:B205"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C197:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B142:B166"/>
+    <mergeCell ref="G57:I60"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B90:B113"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="G111:I113"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A167:A183"/>
+    <mergeCell ref="B167:B183"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="C171:C175"/>
+    <mergeCell ref="C176:C179"/>
+    <mergeCell ref="C180:C183"/>
+    <mergeCell ref="A114:A141"/>
+    <mergeCell ref="B114:B141"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="A142:A162"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="C155:C158"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="A90:A113"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="G12:I14"/>
     <mergeCell ref="B52:B60"/>
     <mergeCell ref="C80:C83"/>
@@ -9163,144 +9277,6 @@
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="E21:E25"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A167:A183"/>
-    <mergeCell ref="B167:B183"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="C171:C175"/>
-    <mergeCell ref="C176:C179"/>
-    <mergeCell ref="C180:C183"/>
-    <mergeCell ref="A114:A141"/>
-    <mergeCell ref="B114:B141"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="A142:A162"/>
-    <mergeCell ref="B61:B75"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="C155:C158"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="A90:A113"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="G111:I113"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="G189:I189"/>
-    <mergeCell ref="A184:A205"/>
-    <mergeCell ref="B184:B205"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="C197:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="B142:B166"/>
-    <mergeCell ref="G57:I60"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="B90:B113"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="G104:I105"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="G181:I181"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G35:I38"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G88:I89"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G175:I175"/>
-    <mergeCell ref="G143:I146"/>
-    <mergeCell ref="G164:I166"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="G196:I196"/>
-    <mergeCell ref="G183:I183"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="E143:E146"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G69:I71"/>
-    <mergeCell ref="G73:I75"/>
-    <mergeCell ref="G207:I208"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="E189:E192"/>
-    <mergeCell ref="E194:E196"/>
-    <mergeCell ref="E198:E201"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="E160:E162"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="E172:E175"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="G198:I198"/>
-    <mergeCell ref="G203:I203"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E16 E39 E44:E45 E48:E49 E61:E62 E68:E69 E72:E73 E76:E77 E80:E81 E84:E85 E90:E91 E94:E95 E98:E99 E102 E106:E107 E133:E134 E142 E147:E148 E176:E177 E180:E181 E184:E185 E188:E189 E193:E194 E197:E198 E202:E203 E20:E21 E26:E27 E30:E31 E34 E52:E53 E56 E110:E111 E114:E115 E118:E119 E124:E125 E129:E130 E137:E138 E151:E152 E155:E156 E159:E160 E163:E164 E167:E168 E171:E172">
     <cfRule type="iconSet" priority="2">
@@ -9335,19 +9311,19 @@
       <selection activeCell="Z133" sqref="Z133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="0.42578125" customWidth="1"/>
-    <col min="17" max="23" width="5.85546875" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" customWidth="1"/>
-    <col min="25" max="28" width="5.85546875" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" customWidth="1"/>
-    <col min="30" max="30" width="0.42578125" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" style="20" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="40.73046875" customWidth="1"/>
+    <col min="3" max="14" width="5.3984375" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" customWidth="1"/>
+    <col min="16" max="16" width="0.3984375" customWidth="1"/>
+    <col min="17" max="23" width="5.86328125" customWidth="1"/>
+    <col min="24" max="24" width="7.265625" customWidth="1"/>
+    <col min="25" max="28" width="5.86328125" customWidth="1"/>
+    <col min="29" max="29" width="6.86328125" customWidth="1"/>
+    <col min="30" max="30" width="0.3984375" customWidth="1"/>
+    <col min="31" max="31" width="12.265625" style="20" customWidth="1"/>
+    <col min="32" max="32" width="8.86328125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
@@ -9376,36 +9352,36 @@
     </row>
     <row r="4" spans="1:33" ht="4.5" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:33" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C5" s="344" t="s">
+      <c r="C5" s="346" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
-      <c r="G5" s="345"/>
-      <c r="H5" s="345"/>
-      <c r="I5" s="345"/>
-      <c r="J5" s="345"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="345"/>
-      <c r="M5" s="345"/>
-      <c r="N5" s="345"/>
-      <c r="O5" s="346"/>
-      <c r="Q5" s="344" t="s">
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="348"/>
+      <c r="Q5" s="346" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="345"/>
-      <c r="S5" s="345"/>
-      <c r="T5" s="345"/>
-      <c r="U5" s="345"/>
-      <c r="V5" s="345"/>
-      <c r="W5" s="345"/>
-      <c r="X5" s="345"/>
-      <c r="Y5" s="345"/>
-      <c r="Z5" s="345"/>
-      <c r="AA5" s="345"/>
-      <c r="AB5" s="345"/>
-      <c r="AC5" s="346"/>
+      <c r="R5" s="347"/>
+      <c r="S5" s="347"/>
+      <c r="T5" s="347"/>
+      <c r="U5" s="347"/>
+      <c r="V5" s="347"/>
+      <c r="W5" s="347"/>
+      <c r="X5" s="347"/>
+      <c r="Y5" s="347"/>
+      <c r="Z5" s="347"/>
+      <c r="AA5" s="347"/>
+      <c r="AB5" s="347"/>
+      <c r="AC5" s="348"/>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:33" ht="18" customHeight="1">
@@ -9599,7 +9575,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="31.5" customHeight="1">
-      <c r="A8" s="309" t="s">
+      <c r="A8" s="246" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -9670,7 +9646,7 @@
       <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="25.5">
-      <c r="A9" s="310"/>
+      <c r="A9" s="247"/>
       <c r="B9" s="94" t="s">
         <v>155</v>
       </c>
@@ -9739,7 +9715,7 @@
       <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" ht="25.5">
-      <c r="A10" s="310"/>
+      <c r="A10" s="247"/>
       <c r="B10" s="95" t="s">
         <v>156</v>
       </c>
@@ -9806,7 +9782,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="38.25">
-      <c r="A11" s="310"/>
+      <c r="A11" s="247"/>
       <c r="B11" s="94" t="s">
         <v>157</v>
       </c>
@@ -9874,7 +9850,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A12" s="309" t="s">
+      <c r="A12" s="246" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="59" t="s">
@@ -9944,7 +9920,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="38.25">
-      <c r="A13" s="310"/>
+      <c r="A13" s="247"/>
       <c r="B13" s="96" t="s">
         <v>158</v>
       </c>
@@ -10012,7 +9988,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A14" s="310"/>
+      <c r="A14" s="247"/>
       <c r="B14" s="96" t="s">
         <v>159</v>
       </c>
@@ -10080,7 +10056,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="25.5">
-      <c r="A15" s="310"/>
+      <c r="A15" s="247"/>
       <c r="B15" s="95" t="s">
         <v>160</v>
       </c>
@@ -10147,8 +10123,8 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="25.5">
-      <c r="A16" s="309" t="s">
+    <row r="16" spans="1:33">
+      <c r="A16" s="246" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -10217,7 +10193,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="25.5">
-      <c r="A17" s="310"/>
+      <c r="A17" s="247"/>
       <c r="B17" s="96" t="s">
         <v>75</v>
       </c>
@@ -10284,7 +10260,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="38.25">
-      <c r="A18" s="310"/>
+      <c r="A18" s="247"/>
       <c r="B18" s="96" t="s">
         <v>76</v>
       </c>
@@ -10351,7 +10327,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="38.25">
-      <c r="A19" s="310"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="96" t="s">
         <v>77</v>
       </c>
@@ -10418,7 +10394,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5">
-      <c r="A20" s="310"/>
+      <c r="A20" s="247"/>
       <c r="B20" s="96" t="s">
         <v>78</v>
       </c>
@@ -10484,8 +10460,8 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="38.25">
-      <c r="A21" s="338" t="s">
+    <row r="21" spans="1:32" ht="39.4">
+      <c r="A21" s="349" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="59" t="s">
@@ -10553,7 +10529,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="38.25">
-      <c r="A22" s="339"/>
+      <c r="A22" s="350"/>
       <c r="B22" s="97" t="s">
         <v>80</v>
       </c>
@@ -10620,7 +10596,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" ht="51">
-      <c r="A23" s="339"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="97" t="s">
         <v>81</v>
       </c>
@@ -10687,7 +10663,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" ht="76.5">
-      <c r="A24" s="339"/>
+      <c r="A24" s="350"/>
       <c r="B24" s="97" t="s">
         <v>82</v>
       </c>
@@ -10754,7 +10730,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="38.25">
-      <c r="A25" s="339"/>
+      <c r="A25" s="350"/>
       <c r="B25" s="97" t="s">
         <v>83</v>
       </c>
@@ -10821,7 +10797,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="38.25">
-      <c r="A26" s="336"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="93" t="s">
         <v>162</v>
       </c>
@@ -10887,8 +10863,8 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="25.5">
-      <c r="A27" s="309" t="s">
+    <row r="27" spans="1:32" ht="26.25">
+      <c r="A27" s="246" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="64" t="s">
@@ -10958,7 +10934,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" ht="51">
-      <c r="A28" s="340"/>
+      <c r="A28" s="351"/>
       <c r="B28" s="98" t="s">
         <v>85</v>
       </c>
@@ -11026,7 +11002,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="25.5">
-      <c r="A29" s="340"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="98" t="s">
         <v>164</v>
       </c>
@@ -11094,7 +11070,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="25.5">
-      <c r="A30" s="340"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="98" t="s">
         <v>165</v>
       </c>
@@ -11161,8 +11137,8 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="38.25">
-      <c r="A31" s="309" t="s">
+    <row r="31" spans="1:32" ht="39.4">
+      <c r="A31" s="246" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="63" t="s">
@@ -11230,7 +11206,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="25.5">
-      <c r="A32" s="310"/>
+      <c r="A32" s="247"/>
       <c r="B32" s="100" t="s">
         <v>167</v>
       </c>
@@ -11296,7 +11272,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="25.5">
-      <c r="A33" s="310"/>
+      <c r="A33" s="247"/>
       <c r="B33" s="100" t="s">
         <v>86</v>
       </c>
@@ -11361,8 +11337,8 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="63.75">
-      <c r="A34" s="310"/>
+    <row r="34" spans="1:32" ht="51">
+      <c r="A34" s="247"/>
       <c r="B34" s="100" t="s">
         <v>168</v>
       </c>
@@ -11427,8 +11403,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="89.25">
-      <c r="A35" s="338" t="s">
+    <row r="35" spans="1:32" ht="91.9">
+      <c r="A35" s="349" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="64" t="s">
@@ -11496,7 +11472,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="39">
-      <c r="A36" s="339"/>
+      <c r="A36" s="350"/>
       <c r="B36" s="101" t="s">
         <v>88</v>
       </c>
@@ -11562,7 +11538,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="51">
-      <c r="A37" s="339"/>
+      <c r="A37" s="350"/>
       <c r="B37" s="102" t="s">
         <v>89</v>
       </c>
@@ -11628,7 +11604,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="63.75">
-      <c r="A38" s="339"/>
+      <c r="A38" s="350"/>
       <c r="B38" s="102" t="s">
         <v>55</v>
       </c>
@@ -11694,7 +11670,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="39">
-      <c r="A39" s="336"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="101" t="s">
         <v>90</v>
       </c>
@@ -11759,8 +11735,8 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="25.5">
-      <c r="A40" s="309" t="s">
+    <row r="40" spans="1:32" ht="26.25">
+      <c r="A40" s="246" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="64" t="s">
@@ -11827,8 +11803,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="38.25">
-      <c r="A41" s="310"/>
+    <row r="41" spans="1:32" ht="25.5">
+      <c r="A41" s="247"/>
       <c r="B41" s="98" t="s">
         <v>56</v>
       </c>
@@ -11894,7 +11870,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="38.25">
-      <c r="A42" s="310"/>
+      <c r="A42" s="247"/>
       <c r="B42" s="98" t="s">
         <v>92</v>
       </c>
@@ -11960,7 +11936,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="25.5">
-      <c r="A43" s="310"/>
+      <c r="A43" s="247"/>
       <c r="B43" s="98" t="s">
         <v>57</v>
       </c>
@@ -12028,7 +12004,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="25.5">
-      <c r="A44" s="310"/>
+      <c r="A44" s="247"/>
       <c r="B44" s="98" t="s">
         <v>93</v>
       </c>
@@ -12095,8 +12071,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="25.5">
-      <c r="A45" s="309" t="s">
+    <row r="45" spans="1:32" ht="26.25">
+      <c r="A45" s="246" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="64" t="s">
@@ -12164,8 +12140,8 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="51.75">
-      <c r="A46" s="310"/>
+    <row r="46" spans="1:32" ht="39">
+      <c r="A46" s="247"/>
       <c r="B46" s="101" t="s">
         <v>170</v>
       </c>
@@ -12233,7 +12209,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="51.75">
-      <c r="A47" s="310"/>
+      <c r="A47" s="247"/>
       <c r="B47" s="101" t="s">
         <v>171</v>
       </c>
@@ -12301,7 +12277,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="51">
-      <c r="A48" s="310"/>
+      <c r="A48" s="247"/>
       <c r="B48" s="102" t="s">
         <v>172</v>
       </c>
@@ -12368,8 +12344,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="38.25">
-      <c r="A49" s="309" t="s">
+    <row r="49" spans="1:32" ht="39.4">
+      <c r="A49" s="246" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="59" t="s">
@@ -12437,7 +12413,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="38.25">
-      <c r="A50" s="310"/>
+      <c r="A50" s="247"/>
       <c r="B50" s="104" t="s">
         <v>94</v>
       </c>
@@ -12503,7 +12479,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="51">
-      <c r="A51" s="310"/>
+      <c r="A51" s="247"/>
       <c r="B51" s="104" t="s">
         <v>95</v>
       </c>
@@ -12569,7 +12545,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="38.25">
-      <c r="A52" s="310"/>
+      <c r="A52" s="247"/>
       <c r="B52" s="104" t="s">
         <v>68</v>
       </c>
@@ -12635,7 +12611,7 @@
       </c>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="309" t="s">
+      <c r="A53" s="246" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -12703,8 +12679,8 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="51">
-      <c r="A54" s="310"/>
+    <row r="54" spans="1:32" ht="38.25">
+      <c r="A54" s="247"/>
       <c r="B54" s="103" t="s">
         <v>173</v>
       </c>
@@ -12772,7 +12748,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="63.75">
-      <c r="A55" s="310"/>
+      <c r="A55" s="247"/>
       <c r="B55" s="99" t="s">
         <v>174</v>
       </c>
@@ -12838,7 +12814,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="25.5">
-      <c r="A56" s="310"/>
+      <c r="A56" s="247"/>
       <c r="B56" s="93" t="s">
         <v>175</v>
       </c>
@@ -12903,8 +12879,8 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="51">
-      <c r="A57" s="309" t="s">
+    <row r="57" spans="1:32" ht="39.4">
+      <c r="A57" s="246" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="64" t="s">
@@ -12973,8 +12949,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="51">
-      <c r="A58" s="310"/>
+    <row r="58" spans="1:32" ht="38.25">
+      <c r="A58" s="247"/>
       <c r="B58" s="95" t="s">
         <v>177</v>
       </c>
@@ -13041,8 +13017,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="38.25">
-      <c r="A59" s="310"/>
+    <row r="59" spans="1:32" ht="25.5">
+      <c r="A59" s="247"/>
       <c r="B59" s="95" t="s">
         <v>178</v>
       </c>
@@ -13110,7 +13086,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="38.25">
-      <c r="A60" s="310"/>
+      <c r="A60" s="247"/>
       <c r="B60" s="95" t="s">
         <v>97</v>
       </c>
@@ -13178,7 +13154,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="51">
-      <c r="A61" s="310"/>
+      <c r="A61" s="247"/>
       <c r="B61" s="94" t="s">
         <v>179</v>
       </c>
@@ -13245,8 +13221,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="51">
-      <c r="A62" s="338" t="s">
+    <row r="62" spans="1:32" ht="52.5">
+      <c r="A62" s="349" t="s">
         <v>15</v>
       </c>
       <c r="B62" s="65" t="s">
@@ -13314,7 +13290,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="38.25">
-      <c r="A63" s="339"/>
+      <c r="A63" s="350"/>
       <c r="B63" s="95" t="s">
         <v>182</v>
       </c>
@@ -13380,7 +13356,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="25.5">
-      <c r="A64" s="339"/>
+      <c r="A64" s="350"/>
       <c r="B64" s="105" t="s">
         <v>183</v>
       </c>
@@ -13446,7 +13422,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" ht="25.5">
-      <c r="A65" s="339"/>
+      <c r="A65" s="350"/>
       <c r="B65" s="95" t="s">
         <v>184</v>
       </c>
@@ -13512,7 +13488,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" ht="38.25">
-      <c r="A66" s="347"/>
+      <c r="A66" s="352"/>
       <c r="B66" s="95" t="s">
         <v>185</v>
       </c>
@@ -13580,7 +13556,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" ht="25.5">
-      <c r="A67" s="347"/>
+      <c r="A67" s="352"/>
       <c r="B67" s="105" t="s">
         <v>186</v>
       </c>
@@ -13648,7 +13624,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" ht="25.5">
-      <c r="A68" s="336"/>
+      <c r="A68" s="206"/>
       <c r="B68" s="105" t="s">
         <v>187</v>
       </c>
@@ -13715,8 +13691,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="25.5">
-      <c r="A69" s="309" t="s">
+    <row r="69" spans="1:32" ht="26.25">
+      <c r="A69" s="246" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="59" t="s">
@@ -13785,7 +13761,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" ht="38.25">
-      <c r="A70" s="310"/>
+      <c r="A70" s="247"/>
       <c r="B70" s="106" t="s">
         <v>188</v>
       </c>
@@ -13853,7 +13829,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="25.5">
-      <c r="A71" s="310"/>
+      <c r="A71" s="247"/>
       <c r="B71" s="95" t="s">
         <v>99</v>
       </c>
@@ -13921,7 +13897,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="25.5">
-      <c r="A72" s="310"/>
+      <c r="A72" s="247"/>
       <c r="B72" s="95" t="s">
         <v>189</v>
       </c>
@@ -13988,8 +13964,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="63.75">
-      <c r="A73" s="309" t="s">
+    <row r="73" spans="1:32" ht="65.650000000000006">
+      <c r="A73" s="246" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="64" t="s">
@@ -14057,7 +14033,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" ht="38.25">
-      <c r="A74" s="310"/>
+      <c r="A74" s="247"/>
       <c r="B74" s="95" t="s">
         <v>191</v>
       </c>
@@ -14123,7 +14099,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" ht="25.5">
-      <c r="A75" s="310"/>
+      <c r="A75" s="247"/>
       <c r="B75" s="105" t="s">
         <v>186</v>
       </c>
@@ -14189,7 +14165,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" ht="38.25">
-      <c r="A76" s="310"/>
+      <c r="A76" s="247"/>
       <c r="B76" s="95" t="s">
         <v>192</v>
       </c>
@@ -14254,8 +14230,8 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="25.5">
-      <c r="A77" s="309" t="s">
+    <row r="77" spans="1:32">
+      <c r="A77" s="246" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="59" t="s">
@@ -14324,7 +14300,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" ht="51">
-      <c r="A78" s="310"/>
+      <c r="A78" s="247"/>
       <c r="B78" s="107" t="s">
         <v>193</v>
       </c>
@@ -14390,7 +14366,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" ht="38.25">
-      <c r="A79" s="310"/>
+      <c r="A79" s="247"/>
       <c r="B79" s="107" t="s">
         <v>103</v>
       </c>
@@ -14457,7 +14433,7 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="25.5">
-      <c r="A80" s="310"/>
+      <c r="A80" s="247"/>
       <c r="B80" s="107" t="s">
         <v>104</v>
       </c>
@@ -14524,8 +14500,8 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="25.5">
-      <c r="A81" s="309" t="s">
+    <row r="81" spans="1:32" ht="26.25">
+      <c r="A81" s="246" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="59" t="s">
@@ -14592,8 +14568,8 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="38.25">
-      <c r="A82" s="310"/>
+    <row r="82" spans="1:32" ht="25.5">
+      <c r="A82" s="247"/>
       <c r="B82" s="107" t="s">
         <v>59</v>
       </c>
@@ -14659,7 +14635,7 @@
       </c>
     </row>
     <row r="83" spans="1:32" ht="38.25">
-      <c r="A83" s="310"/>
+      <c r="A83" s="247"/>
       <c r="B83" s="107" t="s">
         <v>106</v>
       </c>
@@ -14725,8 +14701,8 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="25.5">
-      <c r="A84" s="310"/>
+    <row r="84" spans="1:32">
+      <c r="A84" s="247"/>
       <c r="B84" s="107" t="s">
         <v>107</v>
       </c>
@@ -14793,8 +14769,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="38.25">
-      <c r="A85" s="309" t="s">
+    <row r="85" spans="1:32" ht="39.4">
+      <c r="A85" s="246" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="66" t="s">
@@ -14862,8 +14838,8 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="51">
-      <c r="A86" s="310"/>
+    <row r="86" spans="1:32" ht="38.25">
+      <c r="A86" s="247"/>
       <c r="B86" s="107" t="s">
         <v>108</v>
       </c>
@@ -14929,7 +14905,7 @@
       </c>
     </row>
     <row r="87" spans="1:32" ht="25.5">
-      <c r="A87" s="310"/>
+      <c r="A87" s="247"/>
       <c r="B87" s="107" t="s">
         <v>195</v>
       </c>
@@ -14994,8 +14970,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="51">
-      <c r="A88" s="310"/>
+    <row r="88" spans="1:32" ht="38.25">
+      <c r="A88" s="247"/>
       <c r="B88" s="108" t="s">
         <v>196</v>
       </c>
@@ -15061,7 +15037,7 @@
       </c>
     </row>
     <row r="89" spans="1:32" ht="51">
-      <c r="A89" s="310"/>
+      <c r="A89" s="247"/>
       <c r="B89" s="96" t="s">
         <v>58</v>
       </c>
@@ -15127,7 +15103,7 @@
       </c>
     </row>
     <row r="90" spans="1:32" ht="38.25">
-      <c r="A90" s="310"/>
+      <c r="A90" s="247"/>
       <c r="B90" s="108" t="s">
         <v>197</v>
       </c>
@@ -15192,8 +15168,8 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="38.25">
-      <c r="A91" s="309" t="s">
+    <row r="91" spans="1:32" ht="39.4">
+      <c r="A91" s="246" t="s">
         <v>21</v>
       </c>
       <c r="B91" s="64" t="s">
@@ -15261,7 +15237,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="310"/>
+      <c r="A92" s="247"/>
       <c r="B92" s="105" t="s">
         <v>110</v>
       </c>
@@ -15327,7 +15303,7 @@
       </c>
     </row>
     <row r="93" spans="1:32" ht="25.5">
-      <c r="A93" s="310"/>
+      <c r="A93" s="247"/>
       <c r="B93" s="105" t="s">
         <v>198</v>
       </c>
@@ -15393,7 +15369,7 @@
       </c>
     </row>
     <row r="94" spans="1:32" ht="38.25">
-      <c r="A94" s="310"/>
+      <c r="A94" s="247"/>
       <c r="B94" s="105" t="s">
         <v>60</v>
       </c>
@@ -15458,8 +15434,8 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="38.25">
-      <c r="A95" s="309" t="s">
+    <row r="95" spans="1:32" ht="39.4">
+      <c r="A95" s="246" t="s">
         <v>22</v>
       </c>
       <c r="B95" s="64" t="s">
@@ -15527,7 +15503,7 @@
       </c>
     </row>
     <row r="96" spans="1:32" ht="38.25">
-      <c r="A96" s="310"/>
+      <c r="A96" s="247"/>
       <c r="B96" s="105" t="s">
         <v>200</v>
       </c>
@@ -15593,7 +15569,7 @@
       </c>
     </row>
     <row r="97" spans="1:32" ht="38.25">
-      <c r="A97" s="310"/>
+      <c r="A97" s="247"/>
       <c r="B97" s="105" t="s">
         <v>201</v>
       </c>
@@ -15659,7 +15635,7 @@
       </c>
     </row>
     <row r="98" spans="1:32" ht="38.25">
-      <c r="A98" s="310"/>
+      <c r="A98" s="247"/>
       <c r="B98" s="105" t="s">
         <v>202</v>
       </c>
@@ -15724,8 +15700,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="51">
-      <c r="A99" s="309" t="s">
+    <row r="99" spans="1:32" ht="52.5">
+      <c r="A99" s="246" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -15794,7 +15770,7 @@
       </c>
     </row>
     <row r="100" spans="1:32" ht="38.25">
-      <c r="A100" s="310"/>
+      <c r="A100" s="247"/>
       <c r="B100" s="105" t="s">
         <v>61</v>
       </c>
@@ -15862,7 +15838,7 @@
       </c>
     </row>
     <row r="101" spans="1:32" ht="38.25">
-      <c r="A101" s="310"/>
+      <c r="A101" s="247"/>
       <c r="B101" s="105" t="s">
         <v>62</v>
       </c>
@@ -15930,7 +15906,7 @@
       </c>
     </row>
     <row r="102" spans="1:32" ht="51">
-      <c r="A102" s="310"/>
+      <c r="A102" s="247"/>
       <c r="B102" s="105" t="s">
         <v>63</v>
       </c>
@@ -15997,8 +15973,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="63.75">
-      <c r="A103" s="309" t="s">
+    <row r="103" spans="1:32" ht="65.650000000000006">
+      <c r="A103" s="246" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -16068,7 +16044,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="25.5">
-      <c r="A104" s="310"/>
+      <c r="A104" s="247"/>
       <c r="B104" s="105" t="s">
         <v>204</v>
       </c>
@@ -16136,7 +16112,7 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="38.25">
-      <c r="A105" s="310"/>
+      <c r="A105" s="247"/>
       <c r="B105" s="105" t="s">
         <v>205</v>
       </c>
@@ -16204,7 +16180,7 @@
       </c>
     </row>
     <row r="106" spans="1:32" ht="38.25">
-      <c r="A106" s="310"/>
+      <c r="A106" s="247"/>
       <c r="B106" s="105" t="s">
         <v>206</v>
       </c>
@@ -16271,8 +16247,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="25.5">
-      <c r="A107" s="309" t="s">
+    <row r="107" spans="1:32" ht="26.25">
+      <c r="A107" s="246" t="s">
         <v>26</v>
       </c>
       <c r="B107" s="59" t="s">
@@ -16341,7 +16317,7 @@
       </c>
     </row>
     <row r="108" spans="1:32" ht="25.5">
-      <c r="A108" s="310"/>
+      <c r="A108" s="247"/>
       <c r="B108" s="107" t="s">
         <v>112</v>
       </c>
@@ -16408,7 +16384,7 @@
       </c>
     </row>
     <row r="109" spans="1:32" ht="25.5">
-      <c r="A109" s="310"/>
+      <c r="A109" s="247"/>
       <c r="B109" s="107" t="s">
         <v>64</v>
       </c>
@@ -16474,8 +16450,8 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="51">
-      <c r="A110" s="310"/>
+    <row r="110" spans="1:32" ht="38.25">
+      <c r="A110" s="247"/>
       <c r="B110" s="107" t="s">
         <v>113</v>
       </c>
@@ -16541,8 +16517,8 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="51">
-      <c r="A111" s="309" t="s">
+    <row r="111" spans="1:32" ht="52.5">
+      <c r="A111" s="246" t="s">
         <v>27</v>
       </c>
       <c r="B111" s="64" t="s">
@@ -16612,7 +16588,7 @@
       </c>
     </row>
     <row r="112" spans="1:32" ht="51">
-      <c r="A112" s="310"/>
+      <c r="A112" s="247"/>
       <c r="B112" s="95" t="s">
         <v>208</v>
       </c>
@@ -16680,7 +16656,7 @@
       </c>
     </row>
     <row r="113" spans="1:32" ht="51">
-      <c r="A113" s="310"/>
+      <c r="A113" s="247"/>
       <c r="B113" s="95" t="s">
         <v>209</v>
       </c>
@@ -16748,7 +16724,7 @@
       </c>
     </row>
     <row r="114" spans="1:32" ht="63.75">
-      <c r="A114" s="310"/>
+      <c r="A114" s="247"/>
       <c r="B114" s="95" t="s">
         <v>210</v>
       </c>
@@ -16815,8 +16791,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="38.25">
-      <c r="A115" s="309" t="s">
+    <row r="115" spans="1:32" ht="39.4">
+      <c r="A115" s="246" t="s">
         <v>29</v>
       </c>
       <c r="B115" s="59" t="s">
@@ -16886,7 +16862,7 @@
       </c>
     </row>
     <row r="116" spans="1:32" ht="25.5">
-      <c r="A116" s="310"/>
+      <c r="A116" s="247"/>
       <c r="B116" s="107" t="s">
         <v>115</v>
       </c>
@@ -16954,7 +16930,7 @@
       </c>
     </row>
     <row r="117" spans="1:32" ht="38.25">
-      <c r="A117" s="310"/>
+      <c r="A117" s="247"/>
       <c r="B117" s="107" t="s">
         <v>211</v>
       </c>
@@ -17022,7 +16998,7 @@
       </c>
     </row>
     <row r="118" spans="1:32" ht="25.5">
-      <c r="A118" s="310"/>
+      <c r="A118" s="247"/>
       <c r="B118" s="107" t="s">
         <v>212</v>
       </c>
@@ -17090,7 +17066,7 @@
       </c>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="309" t="s">
+      <c r="A119" s="246" t="s">
         <v>30</v>
       </c>
       <c r="B119" s="59" t="s">
@@ -17157,7 +17133,7 @@
       </c>
     </row>
     <row r="120" spans="1:32" ht="25.5">
-      <c r="A120" s="310"/>
+      <c r="A120" s="247"/>
       <c r="B120" s="109" t="s">
         <v>117</v>
       </c>
@@ -17225,7 +17201,7 @@
       </c>
     </row>
     <row r="121" spans="1:32" ht="25.5">
-      <c r="A121" s="310"/>
+      <c r="A121" s="247"/>
       <c r="B121" s="109" t="s">
         <v>118</v>
       </c>
@@ -17293,7 +17269,7 @@
       </c>
     </row>
     <row r="122" spans="1:32" ht="38.25">
-      <c r="A122" s="310"/>
+      <c r="A122" s="247"/>
       <c r="B122" s="105" t="s">
         <v>213</v>
       </c>
@@ -17345,7 +17321,7 @@
       <c r="AF122" s="45"/>
     </row>
     <row r="123" spans="1:32" ht="51">
-      <c r="A123" s="310"/>
+      <c r="A123" s="247"/>
       <c r="B123" s="170" t="s">
         <v>208</v>
       </c>
@@ -17385,7 +17361,7 @@
       <c r="AF123" s="45"/>
     </row>
     <row r="124" spans="1:32" ht="51">
-      <c r="A124" s="310"/>
+      <c r="A124" s="247"/>
       <c r="B124" s="108" t="s">
         <v>209</v>
       </c>
@@ -17448,8 +17424,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="51">
-      <c r="A125" s="338" t="s">
+    <row r="125" spans="1:32" ht="52.5">
+      <c r="A125" s="349" t="s">
         <v>31</v>
       </c>
       <c r="B125" s="59" t="s">
@@ -17517,7 +17493,7 @@
       </c>
     </row>
     <row r="126" spans="1:32" ht="51">
-      <c r="A126" s="339"/>
+      <c r="A126" s="350"/>
       <c r="B126" s="111" t="s">
         <v>215</v>
       </c>
@@ -17579,7 +17555,7 @@
       </c>
     </row>
     <row r="127" spans="1:32" ht="25.5">
-      <c r="A127" s="339"/>
+      <c r="A127" s="350"/>
       <c r="B127" s="105" t="s">
         <v>216</v>
       </c>
@@ -17645,7 +17621,7 @@
       </c>
     </row>
     <row r="128" spans="1:32" ht="25.5">
-      <c r="A128" s="339"/>
+      <c r="A128" s="350"/>
       <c r="B128" s="105" t="s">
         <v>119</v>
       </c>
@@ -17711,7 +17687,7 @@
       </c>
     </row>
     <row r="129" spans="1:32" ht="63.75">
-      <c r="A129" s="336"/>
+      <c r="A129" s="206"/>
       <c r="B129" s="95" t="s">
         <v>217</v>
       </c>
@@ -17776,8 +17752,8 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="30">
-      <c r="A130" s="338" t="s">
+    <row r="130" spans="1:32" ht="27.75">
+      <c r="A130" s="349" t="s">
         <v>32</v>
       </c>
       <c r="B130" s="67" t="s">
@@ -17845,7 +17821,7 @@
       </c>
     </row>
     <row r="131" spans="1:32" ht="25.5">
-      <c r="A131" s="342"/>
+      <c r="A131" s="353"/>
       <c r="B131" s="105" t="s">
         <v>219</v>
       </c>
@@ -17911,7 +17887,7 @@
       </c>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="342"/>
+      <c r="A132" s="353"/>
       <c r="B132" s="105" t="s">
         <v>220</v>
       </c>
@@ -17977,7 +17953,7 @@
       </c>
     </row>
     <row r="133" spans="1:32" ht="25.5">
-      <c r="A133" s="342"/>
+      <c r="A133" s="353"/>
       <c r="B133" s="105" t="s">
         <v>221</v>
       </c>
@@ -18042,8 +18018,8 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="38.25">
-      <c r="A134" s="309" t="s">
+    <row r="134" spans="1:32" ht="39.4">
+      <c r="A134" s="246" t="s">
         <v>33</v>
       </c>
       <c r="B134" s="59" t="s">
@@ -18108,8 +18084,8 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="38.25">
-      <c r="A135" s="310"/>
+    <row r="135" spans="1:32" ht="25.5">
+      <c r="A135" s="247"/>
       <c r="B135" s="112" t="s">
         <v>222</v>
       </c>
@@ -18177,7 +18153,7 @@
       </c>
     </row>
     <row r="136" spans="1:32" ht="51">
-      <c r="A136" s="310"/>
+      <c r="A136" s="247"/>
       <c r="B136" s="112" t="s">
         <v>223</v>
       </c>
@@ -18244,8 +18220,8 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="38.25">
-      <c r="A137" s="310"/>
+    <row r="137" spans="1:32" ht="25.5">
+      <c r="A137" s="247"/>
       <c r="B137" s="112" t="s">
         <v>224</v>
       </c>
@@ -18312,8 +18288,8 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="60">
-      <c r="A138" s="338" t="s">
+    <row r="138" spans="1:32" ht="55.5">
+      <c r="A138" s="349" t="s">
         <v>34</v>
       </c>
       <c r="B138" s="68" t="s">
@@ -18380,8 +18356,8 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="42.75">
-      <c r="A139" s="339"/>
+    <row r="139" spans="1:32" ht="27">
+      <c r="A139" s="350"/>
       <c r="B139" s="113" t="s">
         <v>226</v>
       </c>
@@ -18447,8 +18423,8 @@
         <v>0.26923076923076916</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="28.5">
-      <c r="A140" s="339"/>
+    <row r="140" spans="1:32" ht="27">
+      <c r="A140" s="350"/>
       <c r="B140" s="113" t="s">
         <v>227</v>
       </c>
@@ -18513,8 +18489,8 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="28.5">
-      <c r="A141" s="339"/>
+    <row r="141" spans="1:32" ht="27">
+      <c r="A141" s="350"/>
       <c r="B141" s="113" t="s">
         <v>228</v>
       </c>
@@ -18579,8 +18555,8 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="28.5">
-      <c r="A142" s="336"/>
+    <row r="142" spans="1:32" ht="27">
+      <c r="A142" s="206"/>
       <c r="B142" s="114" t="s">
         <v>229</v>
       </c>
@@ -18645,8 +18621,8 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="89.25">
-      <c r="A143" s="309" t="s">
+    <row r="143" spans="1:32" ht="78.75">
+      <c r="A143" s="246" t="s">
         <v>36</v>
       </c>
       <c r="B143" s="59" t="s">
@@ -18714,7 +18690,7 @@
       </c>
     </row>
     <row r="144" spans="1:32" ht="38.25">
-      <c r="A144" s="310"/>
+      <c r="A144" s="247"/>
       <c r="B144" s="111" t="s">
         <v>230</v>
       </c>
@@ -18780,7 +18756,7 @@
       </c>
     </row>
     <row r="145" spans="1:32" ht="51">
-      <c r="A145" s="310"/>
+      <c r="A145" s="247"/>
       <c r="B145" s="109" t="s">
         <v>65</v>
       </c>
@@ -18846,7 +18822,7 @@
       </c>
     </row>
     <row r="146" spans="1:32" ht="63.75">
-      <c r="A146" s="310"/>
+      <c r="A146" s="247"/>
       <c r="B146" s="105" t="s">
         <v>66</v>
       </c>
@@ -18912,7 +18888,7 @@
       </c>
     </row>
     <row r="147" spans="1:32" ht="38.25">
-      <c r="A147" s="310"/>
+      <c r="A147" s="247"/>
       <c r="B147" s="105" t="s">
         <v>67</v>
       </c>
@@ -18977,8 +18953,8 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="51">
-      <c r="A148" s="309" t="s">
+    <row r="148" spans="1:32" ht="52.5">
+      <c r="A148" s="246" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="59" t="s">
@@ -19044,7 +19020,7 @@
       </c>
     </row>
     <row r="149" spans="1:32" ht="51">
-      <c r="A149" s="310"/>
+      <c r="A149" s="247"/>
       <c r="B149" s="109" t="s">
         <v>124</v>
       </c>
@@ -19108,7 +19084,7 @@
       </c>
     </row>
     <row r="150" spans="1:32" ht="63.75">
-      <c r="A150" s="310"/>
+      <c r="A150" s="247"/>
       <c r="B150" s="115" t="s">
         <v>231</v>
       </c>
@@ -19175,7 +19151,7 @@
       </c>
     </row>
     <row r="151" spans="1:32" ht="63.75">
-      <c r="A151" s="310"/>
+      <c r="A151" s="247"/>
       <c r="B151" s="109" t="s">
         <v>125</v>
       </c>
@@ -19241,8 +19217,8 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:32" ht="51">
-      <c r="A152" s="309" t="s">
+    <row r="152" spans="1:32" ht="52.5">
+      <c r="A152" s="246" t="s">
         <v>38</v>
       </c>
       <c r="B152" s="64" t="s">
@@ -19310,8 +19286,8 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="63.75">
-      <c r="A153" s="310"/>
+    <row r="153" spans="1:32" ht="51">
+      <c r="A153" s="247"/>
       <c r="B153" s="105" t="s">
         <v>233</v>
       </c>
@@ -19378,7 +19354,7 @@
       </c>
     </row>
     <row r="154" spans="1:32" ht="51">
-      <c r="A154" s="310"/>
+      <c r="A154" s="247"/>
       <c r="B154" s="105" t="s">
         <v>234</v>
       </c>
@@ -19445,7 +19421,7 @@
       </c>
     </row>
     <row r="155" spans="1:32" ht="51">
-      <c r="A155" s="310"/>
+      <c r="A155" s="247"/>
       <c r="B155" s="105" t="s">
         <v>235</v>
       </c>
@@ -19511,8 +19487,8 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="76.5">
-      <c r="A156" s="309" t="s">
+    <row r="156" spans="1:32" ht="78.75">
+      <c r="A156" s="246" t="s">
         <v>39</v>
       </c>
       <c r="B156" s="64" t="s">
@@ -19579,8 +19555,8 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="89.25">
-      <c r="A157" s="310"/>
+    <row r="157" spans="1:32" ht="76.5">
+      <c r="A157" s="247"/>
       <c r="B157" s="107" t="s">
         <v>237</v>
       </c>
@@ -19647,7 +19623,7 @@
       </c>
     </row>
     <row r="158" spans="1:32" ht="63.75">
-      <c r="A158" s="310"/>
+      <c r="A158" s="247"/>
       <c r="B158" s="105" t="s">
         <v>238</v>
       </c>
@@ -19714,7 +19690,7 @@
       </c>
     </row>
     <row r="159" spans="1:32" ht="76.5">
-      <c r="A159" s="310"/>
+      <c r="A159" s="247"/>
       <c r="B159" s="105" t="s">
         <v>239</v>
       </c>
@@ -19780,8 +19756,8 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="38.25">
-      <c r="A160" s="309" t="s">
+    <row r="160" spans="1:32" ht="39.4">
+      <c r="A160" s="246" t="s">
         <v>126</v>
       </c>
       <c r="B160" s="64" t="s">
@@ -19850,7 +19826,7 @@
       </c>
     </row>
     <row r="161" spans="1:32" ht="38.25">
-      <c r="A161" s="310"/>
+      <c r="A161" s="247"/>
       <c r="B161" s="109" t="s">
         <v>241</v>
       </c>
@@ -19916,8 +19892,8 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="51">
-      <c r="A162" s="310"/>
+    <row r="162" spans="1:32" ht="38.25">
+      <c r="A162" s="247"/>
       <c r="B162" s="109" t="s">
         <v>242</v>
       </c>
@@ -19984,7 +19960,7 @@
       </c>
     </row>
     <row r="163" spans="1:32" ht="38.25">
-      <c r="A163" s="310"/>
+      <c r="A163" s="247"/>
       <c r="B163" s="109" t="s">
         <v>243</v>
       </c>
@@ -20050,8 +20026,8 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="38.25">
-      <c r="A164" s="340" t="s">
+    <row r="164" spans="1:32" ht="39.4">
+      <c r="A164" s="351" t="s">
         <v>244</v>
       </c>
       <c r="B164" s="64" t="s">
@@ -20117,7 +20093,7 @@
       </c>
     </row>
     <row r="165" spans="1:32" ht="51">
-      <c r="A165" s="341"/>
+      <c r="A165" s="354"/>
       <c r="B165" s="116" t="s">
         <v>246</v>
       </c>
@@ -20181,7 +20157,7 @@
       </c>
     </row>
     <row r="166" spans="1:32" ht="51">
-      <c r="A166" s="341"/>
+      <c r="A166" s="354"/>
       <c r="B166" s="96" t="s">
         <v>247</v>
       </c>
@@ -20248,7 +20224,7 @@
       </c>
     </row>
     <row r="167" spans="1:32" ht="25.5">
-      <c r="A167" s="341"/>
+      <c r="A167" s="354"/>
       <c r="B167" s="96" t="s">
         <v>248</v>
       </c>
@@ -20314,8 +20290,8 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="25.5">
-      <c r="A168" s="309" t="s">
+    <row r="168" spans="1:32" ht="26.25">
+      <c r="A168" s="246" t="s">
         <v>40</v>
       </c>
       <c r="B168" s="63" t="s">
@@ -20380,8 +20356,8 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="57">
-      <c r="A169" s="310"/>
+    <row r="169" spans="1:32" ht="54">
+      <c r="A169" s="247"/>
       <c r="B169" s="139" t="s">
         <v>337</v>
       </c>
@@ -20444,8 +20420,8 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="28.5">
-      <c r="A170" s="310"/>
+    <row r="170" spans="1:32" ht="27">
+      <c r="A170" s="247"/>
       <c r="B170" s="139" t="s">
         <v>338</v>
       </c>
@@ -20509,7 +20485,7 @@
       </c>
     </row>
     <row r="171" spans="1:32">
-      <c r="A171" s="310"/>
+      <c r="A171" s="247"/>
       <c r="B171" s="140" t="s">
         <v>339</v>
       </c>
@@ -20572,8 +20548,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="172" spans="1:32" ht="51">
-      <c r="A172" s="338" t="s">
+    <row r="172" spans="1:32" ht="52.5">
+      <c r="A172" s="349" t="s">
         <v>41</v>
       </c>
       <c r="B172" s="64" t="s">
@@ -20639,7 +20615,7 @@
       </c>
     </row>
     <row r="173" spans="1:32" ht="38.25">
-      <c r="A173" s="339"/>
+      <c r="A173" s="350"/>
       <c r="B173" s="70" t="s">
         <v>251</v>
       </c>
@@ -20705,7 +20681,7 @@
       </c>
     </row>
     <row r="174" spans="1:32" ht="76.5">
-      <c r="A174" s="339"/>
+      <c r="A174" s="350"/>
       <c r="B174" s="70" t="str">
         <f>'[1]PAT 2024'!$C$180</f>
         <v>Investigar y comparar la simbología utilizada en los programas de ordenamiento territorial, turísticos, movilidad y seguridad vial, atlas de riesgo, áreas naturales protegidas y programas de desarrollo urbano en sus diferentes clasificaciones.</v>
@@ -20772,8 +20748,8 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="25.5">
-      <c r="A175" s="339"/>
+    <row r="175" spans="1:32">
+      <c r="A175" s="350"/>
       <c r="B175" s="70" t="s">
         <v>252</v>
       </c>
@@ -20841,7 +20817,7 @@
       </c>
     </row>
     <row r="176" spans="1:32" ht="51">
-      <c r="A176" s="336"/>
+      <c r="A176" s="206"/>
       <c r="B176" s="70" t="s">
         <v>253</v>
       </c>
@@ -20908,8 +20884,8 @@
         <v>-0.66666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="63.75">
-      <c r="A177" s="309" t="s">
+    <row r="177" spans="1:32" ht="65.650000000000006">
+      <c r="A177" s="246" t="s">
         <v>42</v>
       </c>
       <c r="B177" s="64" t="s">
@@ -20975,7 +20951,7 @@
       </c>
     </row>
     <row r="178" spans="1:32" ht="38.25">
-      <c r="A178" s="310"/>
+      <c r="A178" s="247"/>
       <c r="B178" s="105" t="s">
         <v>129</v>
       </c>
@@ -21039,7 +21015,7 @@
       </c>
     </row>
     <row r="179" spans="1:32" ht="63.75">
-      <c r="A179" s="310"/>
+      <c r="A179" s="247"/>
       <c r="B179" s="70" t="s">
         <v>255</v>
       </c>
@@ -21103,7 +21079,7 @@
       </c>
     </row>
     <row r="180" spans="1:32" ht="63.75">
-      <c r="A180" s="310"/>
+      <c r="A180" s="247"/>
       <c r="B180" s="105" t="s">
         <v>256</v>
       </c>
@@ -21166,8 +21142,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="76.5">
-      <c r="A181" s="309" t="s">
+    <row r="181" spans="1:32" ht="78.75">
+      <c r="A181" s="246" t="s">
         <v>43</v>
       </c>
       <c r="B181" s="64" t="s">
@@ -21236,7 +21212,7 @@
       </c>
     </row>
     <row r="182" spans="1:32" ht="76.5">
-      <c r="A182" s="310"/>
+      <c r="A182" s="247"/>
       <c r="B182" s="117" t="s">
         <v>258</v>
       </c>
@@ -21300,7 +21276,7 @@
       </c>
     </row>
     <row r="183" spans="1:32" ht="25.5">
-      <c r="A183" s="310"/>
+      <c r="A183" s="247"/>
       <c r="B183" s="95" t="s">
         <v>259</v>
       </c>
@@ -21364,7 +21340,7 @@
       </c>
     </row>
     <row r="184" spans="1:32" ht="38.25">
-      <c r="A184" s="310"/>
+      <c r="A184" s="247"/>
       <c r="B184" s="96" t="s">
         <v>260</v>
       </c>
@@ -21427,8 +21403,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="38.25">
-      <c r="A185" s="309" t="s">
+    <row r="185" spans="1:32" ht="39.4">
+      <c r="A185" s="246" t="s">
         <v>44</v>
       </c>
       <c r="B185" s="64" t="s">
@@ -21494,7 +21470,7 @@
       </c>
     </row>
     <row r="186" spans="1:32" ht="25.5">
-      <c r="A186" s="310"/>
+      <c r="A186" s="247"/>
       <c r="B186" s="105" t="s">
         <v>262</v>
       </c>
@@ -21558,7 +21534,7 @@
       </c>
     </row>
     <row r="187" spans="1:32" ht="25.5">
-      <c r="A187" s="310"/>
+      <c r="A187" s="247"/>
       <c r="B187" s="105" t="s">
         <v>261</v>
       </c>
@@ -21622,7 +21598,7 @@
       </c>
     </row>
     <row r="188" spans="1:32" ht="25.5">
-      <c r="A188" s="310"/>
+      <c r="A188" s="247"/>
       <c r="B188" s="105" t="s">
         <v>263</v>
       </c>
@@ -21688,8 +21664,8 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="51">
-      <c r="A189" s="338" t="s">
+    <row r="189" spans="1:32" ht="52.5">
+      <c r="A189" s="349" t="s">
         <v>45</v>
       </c>
       <c r="B189" s="71" t="s">
@@ -21755,7 +21731,7 @@
       </c>
     </row>
     <row r="190" spans="1:32" ht="25.5">
-      <c r="A190" s="339"/>
+      <c r="A190" s="350"/>
       <c r="B190" s="95" t="s">
         <v>265</v>
       </c>
@@ -21822,7 +21798,7 @@
       </c>
     </row>
     <row r="191" spans="1:32" ht="38.25">
-      <c r="A191" s="339"/>
+      <c r="A191" s="350"/>
       <c r="B191" s="109" t="s">
         <v>266</v>
       </c>
@@ -21886,7 +21862,7 @@
       </c>
     </row>
     <row r="192" spans="1:32" ht="38.25">
-      <c r="A192" s="339"/>
+      <c r="A192" s="350"/>
       <c r="B192" s="95" t="s">
         <v>267</v>
       </c>
@@ -21954,7 +21930,7 @@
       </c>
     </row>
     <row r="193" spans="1:32" ht="38.25">
-      <c r="A193" s="336"/>
+      <c r="A193" s="206"/>
       <c r="B193" s="96" t="s">
         <v>268</v>
       </c>
@@ -22019,8 +21995,8 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:32" ht="51">
-      <c r="A194" s="309" t="s">
+    <row r="194" spans="1:32" ht="52.5">
+      <c r="A194" s="246" t="s">
         <v>46</v>
       </c>
       <c r="B194" s="71" t="s">
@@ -22086,7 +22062,7 @@
       </c>
     </row>
     <row r="195" spans="1:32" ht="38.25">
-      <c r="A195" s="310"/>
+      <c r="A195" s="247"/>
       <c r="B195" s="95" t="s">
         <v>270</v>
       </c>
@@ -22150,7 +22126,7 @@
       </c>
     </row>
     <row r="196" spans="1:32" ht="38.25">
-      <c r="A196" s="310"/>
+      <c r="A196" s="247"/>
       <c r="B196" s="95" t="s">
         <v>271</v>
       </c>
@@ -22214,7 +22190,7 @@
       </c>
     </row>
     <row r="197" spans="1:32" ht="38.25">
-      <c r="A197" s="310"/>
+      <c r="A197" s="247"/>
       <c r="B197" s="95" t="s">
         <v>272</v>
       </c>
@@ -22277,8 +22253,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="198" spans="1:32" ht="38.25">
-      <c r="A198" s="338" t="s">
+    <row r="198" spans="1:32" ht="39.4">
+      <c r="A198" s="349" t="s">
         <v>47</v>
       </c>
       <c r="B198" s="63" t="s">
@@ -22346,7 +22322,7 @@
       </c>
     </row>
     <row r="199" spans="1:32" ht="63.75">
-      <c r="A199" s="339"/>
+      <c r="A199" s="350"/>
       <c r="B199" s="96" t="s">
         <v>274</v>
       </c>
@@ -22412,7 +22388,7 @@
       </c>
     </row>
     <row r="200" spans="1:32" ht="38.25">
-      <c r="A200" s="339"/>
+      <c r="A200" s="350"/>
       <c r="B200" s="96" t="s">
         <v>275</v>
       </c>
@@ -22479,7 +22455,7 @@
       </c>
     </row>
     <row r="201" spans="1:32" ht="76.5">
-      <c r="A201" s="339"/>
+      <c r="A201" s="350"/>
       <c r="B201" s="108" t="s">
         <v>276</v>
       </c>
@@ -22545,7 +22521,7 @@
       </c>
     </row>
     <row r="202" spans="1:32" ht="63.75">
-      <c r="A202" s="336"/>
+      <c r="A202" s="206"/>
       <c r="B202" s="110" t="s">
         <v>277</v>
       </c>
@@ -22610,8 +22586,8 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:32" ht="76.5">
-      <c r="A203" s="309" t="s">
+    <row r="203" spans="1:32" ht="78.75">
+      <c r="A203" s="246" t="s">
         <v>48</v>
       </c>
       <c r="B203" s="65" t="s">
@@ -22679,7 +22655,7 @@
       </c>
     </row>
     <row r="204" spans="1:32" ht="76.5">
-      <c r="A204" s="310"/>
+      <c r="A204" s="247"/>
       <c r="B204" s="118" t="s">
         <v>279</v>
       </c>
@@ -22745,7 +22721,7 @@
       </c>
     </row>
     <row r="205" spans="1:32" ht="76.5">
-      <c r="A205" s="310"/>
+      <c r="A205" s="247"/>
       <c r="B205" s="109" t="s">
         <v>280</v>
       </c>
@@ -22810,8 +22786,8 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="89.25">
-      <c r="A206" s="310"/>
+    <row r="206" spans="1:32" ht="76.5">
+      <c r="A206" s="247"/>
       <c r="B206" s="108" t="s">
         <v>281</v>
       </c>
@@ -22876,8 +22852,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="102">
-      <c r="A207" s="343" t="s">
+    <row r="207" spans="1:32" ht="105">
+      <c r="A207" s="345" t="s">
         <v>340</v>
       </c>
       <c r="B207" s="145" t="s">
@@ -22940,8 +22916,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="42.75">
-      <c r="A208" s="343"/>
+    <row r="208" spans="1:32" ht="40.5">
+      <c r="A208" s="345"/>
       <c r="B208" s="146" t="s">
         <v>342</v>
       </c>
@@ -23002,8 +22978,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:31" ht="28.5">
-      <c r="A209" s="343"/>
+    <row r="209" spans="1:31" ht="27">
+      <c r="A209" s="345"/>
       <c r="B209" s="146" t="s">
         <v>343</v>
       </c>
@@ -23064,8 +23040,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:31" ht="42.75">
-      <c r="A210" s="343"/>
+    <row r="210" spans="1:31" ht="40.5">
+      <c r="A210" s="345"/>
       <c r="B210" s="146" t="s">
         <v>344</v>
       </c>
@@ -23226,6 +23202,38 @@
     <protectedRange sqref="B171" name="Rango1_5_4"/>
   </protectedRanges>
   <mergeCells count="48">
+    <mergeCell ref="A198:A202"/>
+    <mergeCell ref="A203:A206"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A193"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A90"/>
     <mergeCell ref="A207:A210"/>
     <mergeCell ref="C5:O5"/>
     <mergeCell ref="Q5:AC5"/>
@@ -23242,38 +23250,6 @@
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A198:A202"/>
-    <mergeCell ref="A203:A206"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A193"/>
-    <mergeCell ref="A194:A197"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N6">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="yesterday">
@@ -23396,7 +23372,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="5" max="5" width="103" customWidth="1"/>
